--- a/data/数据包字段说明.xlsx
+++ b/data/数据包字段说明.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25806"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JichenLi\My\File\Code\Python\SES\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E40FC5D-694E-4C00-9D5F-F606B63A9224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="14628"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -610,14 +616,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,151 +633,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -786,192 +648,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -994,259 +688,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1260,9 +709,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1279,77 +725,33 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1607,3062 +1009,3050 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="E197" sqref="E197"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.6296296296296" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.1296296296296" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.6296296296296" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="8"/>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:5">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="9" t="s">
+      <c r="E2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:5">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="9" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="9" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="179.4" spans="1:5">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9" t="s">
+    <row r="6" spans="1:5" ht="171" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:5">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:5">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="9" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" ht="27.6" spans="1:5">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="9" t="s">
+    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="9" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="9" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="9" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="9" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="13"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="10" t="s">
+      <c r="D17" s="7"/>
+      <c r="E17" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="12"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="10" t="s">
+      <c r="D18" s="7"/>
+      <c r="E18" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="12"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="10" t="s">
+      <c r="D19" s="7"/>
+      <c r="E19" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="12"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="12"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="9" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="12"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="9" t="s">
+      <c r="E30" s="10"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="9" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="9" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="9" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="9" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="9" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="9" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="8" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="9" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="9" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="8" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="9" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="9" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="9" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="E42" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="6" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="13"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="9" t="s">
+      <c r="D43" s="5"/>
+      <c r="E43" s="10"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="9" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="9" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E46" s="10"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="9" t="s">
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="10" t="s">
+      <c r="D47" s="7"/>
+      <c r="E47" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="9" t="s">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="10" t="s">
+      <c r="D48" s="7"/>
+      <c r="E48" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="9" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10" t="s">
+      <c r="D49" s="7"/>
+      <c r="E49" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="9" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="10" t="s">
+      <c r="D50" s="7"/>
+      <c r="E50" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="9" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="10" t="s">
+      <c r="D51" s="7"/>
+      <c r="E51" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="9" t="s">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="10" t="s">
+      <c r="D52" s="7"/>
+      <c r="E52" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="9" t="s">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="10" t="s">
+      <c r="D53" s="7"/>
+      <c r="E53" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="9" t="s">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="10" t="s">
+      <c r="D54" s="7"/>
+      <c r="E54" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="6" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="11" t="s">
         <v>82</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="13"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="6"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="11"/>
       <c r="B56" s="12"/>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="6"/>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="11"/>
       <c r="B57" s="12"/>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="6"/>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="11"/>
       <c r="B58" s="12"/>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="6"/>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="11"/>
       <c r="B59" s="12"/>
-      <c r="C59" s="9" t="s">
+      <c r="C59" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="10" t="s">
+      <c r="D59" s="7"/>
+      <c r="E59" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="6"/>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="11"/>
       <c r="B60" s="12"/>
-      <c r="C60" s="9" t="s">
+      <c r="C60" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="10" t="s">
+      <c r="D60" s="7"/>
+      <c r="E60" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="6"/>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="11"/>
       <c r="B61" s="12"/>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D61" s="9"/>
-      <c r="E61" s="10" t="s">
+      <c r="D61" s="7"/>
+      <c r="E61" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="6"/>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="11"/>
       <c r="B62" s="12"/>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D62" s="9"/>
-      <c r="E62" s="10" t="s">
+      <c r="D62" s="7"/>
+      <c r="E62" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="6"/>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="11"/>
       <c r="B63" s="12"/>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="10" t="s">
+      <c r="D63" s="7"/>
+      <c r="E63" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="6"/>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="11"/>
       <c r="B64" s="12"/>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="10" t="s">
+      <c r="D64" s="7"/>
+      <c r="E64" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="6"/>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="11"/>
       <c r="B65" s="12"/>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="10" t="s">
+      <c r="D65" s="7"/>
+      <c r="E65" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="6"/>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="11"/>
       <c r="B66" s="12"/>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="10" t="s">
+      <c r="D66" s="7"/>
+      <c r="E66" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="6"/>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="11"/>
       <c r="B67" s="12"/>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="10" t="s">
+      <c r="D67" s="7"/>
+      <c r="E67" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="6"/>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="11"/>
       <c r="B68" s="12"/>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="10" t="s">
+      <c r="D68" s="7"/>
+      <c r="E68" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="6" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="13"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="6"/>
-      <c r="B70" s="6"/>
-      <c r="C70" s="9" t="s">
+      <c r="D69" s="5"/>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="D70" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E70" s="10" t="s">
+      <c r="E70" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="6"/>
-      <c r="B71" s="6"/>
-      <c r="C71" s="9" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D71" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E71" s="10" t="s">
+      <c r="E71" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="9" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="D72" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E72" s="10" t="s">
+      <c r="E72" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" s="6"/>
-      <c r="B73" s="6"/>
-      <c r="C73" s="9" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="10" t="s">
+      <c r="D73" s="7"/>
+      <c r="E73" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="6"/>
-      <c r="B74" s="6"/>
-      <c r="C74" s="9" t="s">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="10" t="s">
+      <c r="D74" s="7"/>
+      <c r="E74" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="9" t="s">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="10" t="s">
+      <c r="D75" s="7"/>
+      <c r="E75" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="9" t="s">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="10" t="s">
+      <c r="D76" s="7"/>
+      <c r="E76" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6"/>
-      <c r="C77" s="9" t="s">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="10" t="s">
+      <c r="D77" s="7"/>
+      <c r="E77" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="9" t="s">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="10" t="s">
+      <c r="D78" s="7"/>
+      <c r="E78" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="6" t="s">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E79" s="13"/>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="9" t="s">
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="D80" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E80" s="10" t="s">
+      <c r="E80" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="9" t="s">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E81" s="10" t="s">
+      <c r="E81" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="9" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="9" t="s">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="10" t="s">
+      <c r="D83" s="7"/>
+      <c r="E83" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="9" t="s">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="10" t="s">
+      <c r="D84" s="7"/>
+      <c r="E84" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6"/>
-      <c r="C85" s="9" t="s">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="10" t="s">
+      <c r="D85" s="7"/>
+      <c r="E85" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6"/>
-      <c r="C86" s="9" t="s">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="10" t="s">
+      <c r="D86" s="7"/>
+      <c r="E86" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
-      <c r="A87" s="6"/>
-      <c r="B87" s="6"/>
-      <c r="C87" s="9" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="10" t="s">
+      <c r="D87" s="7"/>
+      <c r="E87" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="9" t="s">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="10" t="s">
+      <c r="D88" s="7"/>
+      <c r="E88" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="6" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D89" s="7"/>
-      <c r="E89" s="13"/>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="6"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="10"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="11"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="9" t="s">
+      <c r="D90" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="E90" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="6"/>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="11"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="9" t="s">
+      <c r="C91" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D91" s="9" t="s">
+      <c r="D91" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="E91" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="6"/>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="11"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D92" s="9" t="s">
+      <c r="D92" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="E92" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="6"/>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="11"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="9" t="s">
+      <c r="C93" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="10" t="s">
+      <c r="D93" s="7"/>
+      <c r="E93" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="6"/>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="11"/>
       <c r="B94" s="14"/>
-      <c r="C94" s="9" t="s">
+      <c r="C94" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="10" t="s">
+      <c r="D94" s="7"/>
+      <c r="E94" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="6"/>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="11"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="9" t="s">
+      <c r="C95" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="10" t="s">
+      <c r="D95" s="7"/>
+      <c r="E95" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
-      <c r="A96" s="6"/>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="11"/>
       <c r="B96" s="14"/>
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="10" t="s">
+      <c r="D96" s="7"/>
+      <c r="E96" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
-      <c r="A97" s="6"/>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" s="11"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="9" t="s">
+      <c r="C97" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D97" s="9" t="s">
+      <c r="D97" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E97" s="10" t="s">
+      <c r="E97" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
-      <c r="A98" s="6"/>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" s="11"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="9" t="s">
+      <c r="C98" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D98" s="9"/>
-      <c r="E98" s="10" t="s">
+      <c r="D98" s="7"/>
+      <c r="E98" s="8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
-      <c r="A99" s="6"/>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" s="11"/>
       <c r="B99" s="14"/>
-      <c r="C99" s="9" t="s">
+      <c r="C99" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="10" t="s">
+      <c r="D99" s="7"/>
+      <c r="E99" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
-      <c r="A100" s="6"/>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" s="11"/>
       <c r="B100" s="14"/>
-      <c r="C100" s="9" t="s">
+      <c r="C100" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D100" s="9"/>
-      <c r="E100" s="10" t="s">
+      <c r="D100" s="7"/>
+      <c r="E100" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
-      <c r="A101" s="6"/>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" s="11"/>
       <c r="B101" s="14"/>
-      <c r="C101" s="9" t="s">
+      <c r="C101" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="E101" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="6"/>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" s="11"/>
       <c r="B102" s="14"/>
-      <c r="C102" s="9" t="s">
+      <c r="C102" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="10" t="s">
+      <c r="D102" s="7"/>
+      <c r="E102" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
-      <c r="A103" s="6"/>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" s="11"/>
       <c r="B103" s="14"/>
-      <c r="C103" s="9" t="s">
+      <c r="C103" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="10" t="s">
+      <c r="D103" s="7"/>
+      <c r="E103" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="6"/>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" s="11"/>
       <c r="B104" s="14"/>
-      <c r="C104" s="9" t="s">
+      <c r="C104" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="10" t="s">
+      <c r="D104" s="7"/>
+      <c r="E104" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
-      <c r="A105" s="6"/>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" s="11"/>
       <c r="B105" s="14"/>
-      <c r="C105" s="9" t="s">
+      <c r="C105" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="10" t="s">
+      <c r="D105" s="7"/>
+      <c r="E105" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
-      <c r="A106" s="6" t="s">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D106" s="7"/>
-      <c r="E106" s="13"/>
-    </row>
-    <row r="107" spans="1:5">
-      <c r="A107" s="6"/>
-      <c r="B107" s="6"/>
-      <c r="C107" s="9" t="s">
+      <c r="D106" s="5"/>
+      <c r="E106" s="10"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="10" t="s">
+      <c r="D107" s="7"/>
+      <c r="E107" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="9" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="9"/>
-      <c r="E108" s="10" t="s">
+      <c r="D108" s="7"/>
+      <c r="E108" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="6"/>
-      <c r="B109" s="6"/>
-      <c r="C109" s="9" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D109" s="9"/>
-      <c r="E109" s="10" t="s">
+      <c r="D109" s="7"/>
+      <c r="E109" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
-      <c r="A110" s="6"/>
-      <c r="B110" s="6"/>
-      <c r="C110" s="9" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D110" s="9"/>
-      <c r="E110" s="10" t="s">
+      <c r="D110" s="7"/>
+      <c r="E110" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
-      <c r="A111" s="6"/>
-      <c r="B111" s="6"/>
-      <c r="C111" s="9" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D111" s="9"/>
-      <c r="E111" s="10" t="s">
+      <c r="D111" s="7"/>
+      <c r="E111" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
-      <c r="A112" s="6"/>
-      <c r="B112" s="6"/>
-      <c r="C112" s="9" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D112" s="9"/>
-      <c r="E112" s="10" t="s">
+      <c r="D112" s="7"/>
+      <c r="E112" s="8" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="6"/>
-      <c r="B113" s="6"/>
-      <c r="C113" s="9" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D113" s="9"/>
-      <c r="E113" s="10" t="s">
+      <c r="D113" s="7"/>
+      <c r="E113" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="6"/>
-      <c r="B114" s="6"/>
-      <c r="C114" s="9" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D114" s="9"/>
-      <c r="E114" s="10" t="s">
+      <c r="D114" s="7"/>
+      <c r="E114" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="6"/>
-      <c r="B115" s="6"/>
-      <c r="C115" s="9" t="s">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D115" s="9"/>
-      <c r="E115" s="10" t="s">
+      <c r="D115" s="7"/>
+      <c r="E115" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="6" t="s">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D116" s="7"/>
-      <c r="E116" s="13"/>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6"/>
-      <c r="C117" s="9" t="s">
+      <c r="D116" s="5"/>
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E117" s="10" t="s">
+      <c r="E117" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="6"/>
-      <c r="B118" s="6"/>
-      <c r="C118" s="9" t="s">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D118" s="9" t="s">
+      <c r="D118" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E118" s="10" t="s">
+      <c r="E118" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="9" t="s">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E119" s="10" t="s">
+      <c r="E119" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="6"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="9" t="s">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D120" s="9"/>
-      <c r="E120" s="10" t="s">
+      <c r="D120" s="7"/>
+      <c r="E120" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="6"/>
-      <c r="B121" s="6"/>
-      <c r="C121" s="9" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D121" s="9"/>
-      <c r="E121" s="10" t="s">
+      <c r="D121" s="7"/>
+      <c r="E121" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
-      <c r="A122" s="6"/>
-      <c r="B122" s="6"/>
-      <c r="C122" s="9" t="s">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D122" s="9"/>
-      <c r="E122" s="10" t="s">
+      <c r="D122" s="7"/>
+      <c r="E122" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="6"/>
-      <c r="B123" s="6"/>
-      <c r="C123" s="9" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D123" s="9"/>
-      <c r="E123" s="10" t="s">
+      <c r="D123" s="7"/>
+      <c r="E123" s="8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
-      <c r="A124" s="6"/>
-      <c r="B124" s="6"/>
-      <c r="C124" s="9" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D124" s="9"/>
-      <c r="E124" s="10" t="s">
+      <c r="D124" s="7"/>
+      <c r="E124" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="6"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="9" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="D125" s="9"/>
-      <c r="E125" s="10" t="s">
+      <c r="D125" s="7"/>
+      <c r="E125" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="6"/>
-      <c r="B126" s="6"/>
-      <c r="C126" s="9" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D126" s="9"/>
-      <c r="E126" s="10" t="s">
+      <c r="D126" s="7"/>
+      <c r="E126" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="6"/>
-      <c r="B127" s="6"/>
-      <c r="C127" s="9" t="s">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D127" s="9"/>
-      <c r="E127" s="10" t="s">
+      <c r="D127" s="7"/>
+      <c r="E127" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
-      <c r="A128" s="6"/>
-      <c r="B128" s="6"/>
-      <c r="C128" s="9" t="s">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="D128" s="9"/>
-      <c r="E128" s="10" t="s">
+      <c r="D128" s="7"/>
+      <c r="E128" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="9" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="D129" s="9"/>
-      <c r="E129" s="10" t="s">
+      <c r="D129" s="7"/>
+      <c r="E129" s="8" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6"/>
-      <c r="C130" s="9" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D130" s="9"/>
-      <c r="E130" s="10" t="s">
+      <c r="D130" s="7"/>
+      <c r="E130" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="6" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C131" s="7" t="s">
+      <c r="C131" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D131" s="7"/>
-      <c r="E131" s="13"/>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6"/>
-      <c r="C132" s="9" t="s">
+      <c r="D131" s="5"/>
+      <c r="E131" s="10"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D132" s="9" t="s">
+      <c r="D132" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E132" s="10" t="s">
+      <c r="E132" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="9" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D133" s="9" t="s">
+      <c r="D133" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E133" s="10" t="s">
+      <c r="E133" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6"/>
-      <c r="C134" s="9" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D134" s="9" t="s">
+      <c r="D134" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E134" s="10" t="s">
+      <c r="E134" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="9" t="s">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D135" s="9"/>
-      <c r="E135" s="10" t="s">
+      <c r="D135" s="7"/>
+      <c r="E135" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="6"/>
-      <c r="B136" s="6"/>
-      <c r="C136" s="9" t="s">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D136" s="9"/>
-      <c r="E136" s="10" t="s">
+      <c r="D136" s="7"/>
+      <c r="E136" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="6"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="9" t="s">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="D137" s="9"/>
-      <c r="E137" s="10" t="s">
+      <c r="D137" s="7"/>
+      <c r="E137" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="6"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="9" t="s">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D138" s="9" t="s">
+      <c r="D138" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="E138" s="10" t="s">
+      <c r="E138" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="15" t="s">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C139" s="9" t="s">
+      <c r="C139" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D139" s="9"/>
-      <c r="E139" s="10" t="s">
+      <c r="D139" s="7"/>
+      <c r="E139" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="16"/>
-      <c r="B140" s="6"/>
-      <c r="C140" s="7" t="s">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" s="13"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D140" s="7"/>
-      <c r="E140" s="13"/>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="16"/>
-      <c r="B141" s="6"/>
-      <c r="C141" s="9" t="s">
+      <c r="D140" s="5"/>
+      <c r="E140" s="10"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" s="13"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D141" s="9" t="s">
+      <c r="D141" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E141" s="10" t="s">
+      <c r="E141" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
-      <c r="A142" s="16"/>
-      <c r="B142" s="6"/>
-      <c r="C142" s="9" t="s">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" s="13"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D142" s="9" t="s">
+      <c r="D142" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E142" s="10" t="s">
+      <c r="E142" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="16"/>
-      <c r="B143" s="6"/>
-      <c r="C143" s="9" t="s">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" s="13"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D143" s="9" t="s">
+      <c r="D143" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E143" s="10" t="s">
+      <c r="E143" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="16"/>
-      <c r="B144" s="6"/>
-      <c r="C144" s="9" t="s">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" s="13"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D144" s="9"/>
-      <c r="E144" s="10" t="s">
+      <c r="D144" s="7"/>
+      <c r="E144" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
-      <c r="A145" s="16"/>
-      <c r="B145" s="6"/>
-      <c r="C145" s="9" t="s">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" s="13"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D145" s="9"/>
-      <c r="E145" s="10" t="s">
+      <c r="D145" s="7"/>
+      <c r="E145" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="16"/>
-      <c r="B146" s="6"/>
-      <c r="C146" s="9" t="s">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" s="13"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D146" s="9"/>
-      <c r="E146" s="10" t="s">
+      <c r="D146" s="7"/>
+      <c r="E146" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="16"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="9" t="s">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" s="13"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D147" s="9"/>
-      <c r="E147" s="10" t="s">
+      <c r="D147" s="7"/>
+      <c r="E147" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="16"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="9" t="s">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" s="13"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D148" s="9"/>
-      <c r="E148" s="10" t="s">
+      <c r="D148" s="7"/>
+      <c r="E148" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="15" t="s">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="9" t="s">
+      <c r="C149" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D149" s="9"/>
-      <c r="E149" s="10" t="s">
+      <c r="D149" s="7"/>
+      <c r="E149" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="16"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="7" t="s">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="13"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D150" s="7"/>
-      <c r="E150" s="13"/>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="16"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="9" t="s">
+      <c r="D150" s="5"/>
+      <c r="E150" s="10"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" s="13"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D151" s="9"/>
-      <c r="E151" s="10" t="s">
+      <c r="D151" s="7"/>
+      <c r="E151" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="16"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="9" t="s">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" s="13"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D152" s="9"/>
-      <c r="E152" s="10" t="s">
+      <c r="D152" s="7"/>
+      <c r="E152" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="16"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="9" t="s">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" s="13"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D153" s="9"/>
-      <c r="E153" s="10" t="s">
+      <c r="D153" s="7"/>
+      <c r="E153" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="16"/>
-      <c r="B154" s="6"/>
-      <c r="C154" s="9" t="s">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" s="13"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D154" s="9"/>
-      <c r="E154" s="10" t="s">
+      <c r="D154" s="7"/>
+      <c r="E154" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="6" t="s">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D155" s="9"/>
-      <c r="E155" s="10" t="s">
+      <c r="D155" s="7"/>
+      <c r="E155" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="7" t="s">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D156" s="7"/>
-      <c r="E156" s="13"/>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="9" t="s">
+      <c r="D156" s="5"/>
+      <c r="E156" s="10"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="11"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D157" s="9"/>
-      <c r="E157" s="10" t="s">
+      <c r="D157" s="7"/>
+      <c r="E157" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="9" t="s">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="11"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D158" s="9"/>
-      <c r="E158" s="10" t="s">
+      <c r="D158" s="7"/>
+      <c r="E158" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="6"/>
-      <c r="B159" s="6"/>
-      <c r="C159" s="9" t="s">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D159" s="9"/>
-      <c r="E159" s="10" t="s">
+      <c r="D159" s="7"/>
+      <c r="E159" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="9" t="s">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D160" s="9"/>
-      <c r="E160" s="10" t="s">
+      <c r="D160" s="7"/>
+      <c r="E160" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6"/>
-      <c r="C161" s="9" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D161" s="9"/>
-      <c r="E161" s="10" t="s">
+      <c r="D161" s="7"/>
+      <c r="E161" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="6"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="9" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D162" s="9"/>
-      <c r="E162" s="10" t="s">
+      <c r="D162" s="7"/>
+      <c r="E162" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="6" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="C163" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D163" s="9"/>
-      <c r="E163" s="10" t="s">
+      <c r="D163" s="7"/>
+      <c r="E163" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="6"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="7" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D164" s="7"/>
-      <c r="E164" s="13"/>
-    </row>
-    <row r="165" spans="1:5">
-      <c r="A165" s="6"/>
-      <c r="B165" s="6"/>
-      <c r="C165" s="9" t="s">
+      <c r="D164" s="5"/>
+      <c r="E164" s="10"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D165" s="9"/>
-      <c r="E165" s="10" t="s">
+      <c r="D165" s="7"/>
+      <c r="E165" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
-      <c r="A166" s="6"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="9" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D166" s="9"/>
-      <c r="E166" s="10" t="s">
+      <c r="D166" s="7"/>
+      <c r="E166" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6"/>
-      <c r="C167" s="9" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D167" s="9"/>
-      <c r="E167" s="10" t="s">
+      <c r="D167" s="7"/>
+      <c r="E167" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
-      <c r="A168" s="6"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="9" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D168" s="9"/>
-      <c r="E168" s="10" t="s">
+      <c r="D168" s="7"/>
+      <c r="E168" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
-      <c r="A169" s="6"/>
-      <c r="B169" s="6"/>
-      <c r="C169" s="9" t="s">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D169" s="9"/>
-      <c r="E169" s="10" t="s">
+      <c r="D169" s="7"/>
+      <c r="E169" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
-      <c r="A170" s="6" t="s">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="C170" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D170" s="9"/>
-      <c r="E170" s="10" t="s">
+      <c r="D170" s="7"/>
+      <c r="E170" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
-      <c r="A171" s="6"/>
-      <c r="B171" s="6"/>
-      <c r="C171" s="7" t="s">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D171" s="7"/>
-      <c r="E171" s="13"/>
-    </row>
-    <row r="172" spans="1:5">
-      <c r="A172" s="6"/>
-      <c r="B172" s="6"/>
-      <c r="C172" s="9" t="s">
+      <c r="D171" s="5"/>
+      <c r="E171" s="10"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D172" s="9"/>
-      <c r="E172" s="10" t="s">
+      <c r="D172" s="7"/>
+      <c r="E172" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
-      <c r="A173" s="6"/>
-      <c r="B173" s="6"/>
-      <c r="C173" s="9" t="s">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" s="11"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D173" s="9"/>
-      <c r="E173" s="10" t="s">
+      <c r="D173" s="7"/>
+      <c r="E173" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
-      <c r="A174" s="6"/>
-      <c r="B174" s="6"/>
-      <c r="C174" s="9" t="s">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" s="11"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D174" s="9"/>
-      <c r="E174" s="10" t="s">
+      <c r="D174" s="7"/>
+      <c r="E174" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
-      <c r="A175" s="6"/>
-      <c r="B175" s="6"/>
-      <c r="C175" s="9" t="s">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" s="11"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D175" s="9"/>
-      <c r="E175" s="10" t="s">
+      <c r="D175" s="7"/>
+      <c r="E175" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
-      <c r="A176" s="6"/>
-      <c r="B176" s="6"/>
-      <c r="C176" s="9" t="s">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" s="11"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="D176" s="9"/>
-      <c r="E176" s="10" t="s">
+      <c r="D176" s="7"/>
+      <c r="E176" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6"/>
-      <c r="C177" s="9" t="s">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D177" s="9"/>
-      <c r="E177" s="10" t="s">
+      <c r="D177" s="7"/>
+      <c r="E177" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
-      <c r="A178" s="6"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="9" t="s">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" s="11"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D178" s="9"/>
-      <c r="E178" s="10" t="s">
+      <c r="D178" s="7"/>
+      <c r="E178" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
-      <c r="A179" s="6"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="9" t="s">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D179" s="9"/>
-      <c r="E179" s="10" t="s">
+      <c r="D179" s="7"/>
+      <c r="E179" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
-      <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="9" t="s">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D180" s="9"/>
-      <c r="E180" s="10" t="s">
+      <c r="D180" s="7"/>
+      <c r="E180" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
-      <c r="A181" s="6" t="s">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A181" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B181" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="C181" s="7" t="s">
+      <c r="C181" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D181" s="7"/>
-      <c r="E181" s="13"/>
-    </row>
-    <row r="182" spans="1:5">
-      <c r="A182" s="6"/>
-      <c r="B182" s="6"/>
-      <c r="C182" s="9" t="s">
+      <c r="D181" s="5"/>
+      <c r="E181" s="10"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D182" s="9" t="s">
+      <c r="D182" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E182" s="10" t="s">
+      <c r="E182" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
-      <c r="A183" s="6"/>
-      <c r="B183" s="6"/>
-      <c r="C183" s="9" t="s">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D183" s="9" t="s">
+      <c r="D183" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E183" s="10" t="s">
+      <c r="E183" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
-      <c r="A184" s="6"/>
-      <c r="B184" s="6"/>
-      <c r="C184" s="9" t="s">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D184" s="9" t="s">
+      <c r="D184" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E184" s="10" t="s">
+      <c r="E184" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
-      <c r="A185" s="6"/>
-      <c r="B185" s="6"/>
-      <c r="C185" s="9" t="s">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D185" s="9"/>
-      <c r="E185" s="10" t="s">
+      <c r="D185" s="7"/>
+      <c r="E185" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
-      <c r="A186" s="6"/>
-      <c r="B186" s="6"/>
-      <c r="C186" s="9" t="s">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" s="11"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D186" s="9"/>
-      <c r="E186" s="10" t="s">
+      <c r="D186" s="7"/>
+      <c r="E186" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
-      <c r="A187" s="6"/>
-      <c r="B187" s="6"/>
-      <c r="C187" s="9" t="s">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D187" s="9"/>
-      <c r="E187" s="10" t="s">
+      <c r="D187" s="7"/>
+      <c r="E187" s="8" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
-      <c r="A188" s="6"/>
-      <c r="B188" s="6"/>
-      <c r="C188" s="9" t="s">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" s="11"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D188" s="9"/>
-      <c r="E188" s="10" t="s">
+      <c r="D188" s="7"/>
+      <c r="E188" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
-      <c r="A189" s="6"/>
-      <c r="B189" s="6"/>
-      <c r="C189" s="9" t="s">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" s="11"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="D189" s="9"/>
-      <c r="E189" s="10" t="s">
+      <c r="D189" s="7"/>
+      <c r="E189" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
-      <c r="A190" s="6"/>
-      <c r="B190" s="6"/>
-      <c r="C190" s="9" t="s">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D190" s="9"/>
-      <c r="E190" s="10" t="s">
+      <c r="D190" s="7"/>
+      <c r="E190" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
-      <c r="A191" s="6"/>
-      <c r="B191" s="6"/>
-      <c r="C191" s="9" t="s">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D191" s="9"/>
-      <c r="E191" s="10" t="s">
+      <c r="D191" s="7"/>
+      <c r="E191" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
-      <c r="A192" s="6" t="s">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="B192" s="6" t="s">
+      <c r="B192" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C192" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D192" s="7"/>
-      <c r="E192" s="13"/>
-    </row>
-    <row r="193" spans="1:5">
-      <c r="A193" s="6"/>
-      <c r="B193" s="6"/>
-      <c r="C193" s="9" t="s">
+      <c r="D192" s="5"/>
+      <c r="E192" s="10"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="11"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D193" s="9" t="s">
+      <c r="D193" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E193" s="10" t="s">
+      <c r="E193" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
-      <c r="A194" s="6"/>
-      <c r="B194" s="6"/>
-      <c r="C194" s="9" t="s">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="11"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D194" s="9" t="s">
+      <c r="D194" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E194" s="10" t="s">
+      <c r="E194" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
-      <c r="A195" s="6"/>
-      <c r="B195" s="6"/>
-      <c r="C195" s="9" t="s">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="11"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D195" s="9" t="s">
+      <c r="D195" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E195" s="10" t="s">
+      <c r="E195" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
-      <c r="A196" s="6"/>
-      <c r="B196" s="6"/>
-      <c r="C196" s="9" t="s">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="11"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D196" s="9"/>
-      <c r="E196" s="10" t="s">
+      <c r="D196" s="7"/>
+      <c r="E196" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
-      <c r="A197" s="6"/>
-      <c r="B197" s="6"/>
-      <c r="C197" s="9" t="s">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D197" s="9"/>
-      <c r="E197" s="10" t="s">
+      <c r="D197" s="7"/>
+      <c r="E197" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
-      <c r="A198" s="6"/>
-      <c r="B198" s="6"/>
-      <c r="C198" s="9" t="s">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D198" s="9"/>
-      <c r="E198" s="10" t="s">
+      <c r="D198" s="7"/>
+      <c r="E198" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
-      <c r="A199" s="6"/>
-      <c r="B199" s="6"/>
-      <c r="C199" s="9" t="s">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="11"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D199" s="9"/>
-      <c r="E199" s="10" t="s">
+      <c r="D199" s="7"/>
+      <c r="E199" s="8" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
-      <c r="A200" s="6"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="9" t="s">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="11"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D200" s="9"/>
-      <c r="E200" s="10" t="s">
+      <c r="D200" s="7"/>
+      <c r="E200" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
-      <c r="A201" s="6" t="s">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="B201" s="6" t="s">
+      <c r="B201" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C201" s="7" t="s">
+      <c r="C201" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D201" s="7" t="s">
+      <c r="D201" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E201" s="8"/>
-    </row>
-    <row r="202" spans="1:5">
-      <c r="A202" s="6"/>
-      <c r="B202" s="6"/>
-      <c r="C202" s="9" t="s">
+      <c r="E201" s="6"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="11"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D202" s="9" t="s">
+      <c r="D202" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E202" s="10" t="s">
+      <c r="E202" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
-      <c r="A203" s="6"/>
-      <c r="B203" s="6"/>
-      <c r="C203" s="9" t="s">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="11"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D203" s="9" t="s">
+      <c r="D203" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E203" s="10" t="s">
+      <c r="E203" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
-      <c r="A204" s="6"/>
-      <c r="B204" s="6"/>
-      <c r="C204" s="9" t="s">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="11"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D204" s="9" t="s">
+      <c r="D204" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E204" s="10" t="s">
+      <c r="E204" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="205" ht="179.4" spans="1:5">
-      <c r="A205" s="6"/>
-      <c r="B205" s="6"/>
-      <c r="C205" s="9" t="s">
+    <row r="205" spans="1:5" ht="171" x14ac:dyDescent="0.2">
+      <c r="A205" s="11"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D205" s="9" t="s">
+      <c r="D205" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E205" s="11" t="s">
+      <c r="E205" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
-      <c r="A206" s="6"/>
-      <c r="B206" s="6"/>
-      <c r="C206" s="9" t="s">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="11"/>
+      <c r="B206" s="11"/>
+      <c r="C206" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D206" s="9" t="s">
+      <c r="D206" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E206" s="10" t="s">
+      <c r="E206" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
-      <c r="A207" s="6"/>
-      <c r="B207" s="6"/>
-      <c r="C207" s="9" t="s">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="11"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D207" s="9" t="s">
+      <c r="D207" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E207" s="10" t="s">
+      <c r="E207" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
-      <c r="A208" s="6"/>
-      <c r="B208" s="6"/>
-      <c r="C208" s="9" t="s">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="11"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D208" s="9" t="s">
+      <c r="D208" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E208" s="10" t="s">
+      <c r="E208" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
-      <c r="A209" s="6"/>
-      <c r="B209" s="6"/>
-      <c r="C209" s="9" t="s">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" s="11"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D209" s="9"/>
-      <c r="E209" s="10" t="s">
+      <c r="D209" s="7"/>
+      <c r="E209" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
-      <c r="A210" s="6"/>
-      <c r="B210" s="6"/>
-      <c r="C210" s="9" t="s">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" s="11"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D210" s="9"/>
-      <c r="E210" s="10" t="s">
+      <c r="D210" s="7"/>
+      <c r="E210" s="8" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
-      <c r="A211" s="6"/>
-      <c r="B211" s="6"/>
-      <c r="C211" s="9" t="s">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" s="11"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D211" s="9" t="s">
+      <c r="D211" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="E211" s="10" t="s">
+      <c r="E211" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
-      <c r="A212" s="6"/>
-      <c r="B212" s="6"/>
-      <c r="C212" s="9" t="s">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" s="11"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D212" s="9" t="s">
+      <c r="D212" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E212" s="10" t="s">
+      <c r="E212" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
-      <c r="A213" s="6"/>
-      <c r="B213" s="6"/>
-      <c r="C213" s="9" t="s">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A213" s="11"/>
+      <c r="B213" s="11"/>
+      <c r="C213" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="D213" s="9"/>
-      <c r="E213" s="10" t="s">
+      <c r="D213" s="7"/>
+      <c r="E213" s="8" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
-      <c r="A214" s="6"/>
-      <c r="B214" s="6"/>
-      <c r="C214" s="9" t="s">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A214" s="11"/>
+      <c r="B214" s="11"/>
+      <c r="C214" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D214" s="9"/>
-      <c r="E214" s="10" t="s">
+      <c r="D214" s="7"/>
+      <c r="E214" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
-      <c r="A215" s="6"/>
-      <c r="B215" s="6"/>
-      <c r="C215" s="9" t="s">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A215" s="11"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D215" s="9" t="s">
+      <c r="D215" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E215" s="10" t="s">
+      <c r="E215" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
-      <c r="A216" s="6" t="s">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A216" s="11" t="s">
         <v>181</v>
       </c>
       <c r="B216" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C216" s="7" t="s">
+      <c r="C216" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D216" s="7"/>
-      <c r="E216" s="13"/>
-    </row>
-    <row r="217" spans="1:5">
-      <c r="A217" s="6"/>
+      <c r="D216" s="5"/>
+      <c r="E216" s="10"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A217" s="11"/>
       <c r="B217" s="12"/>
-      <c r="C217" s="9" t="s">
+      <c r="C217" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D217" s="9" t="s">
+      <c r="D217" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E217" s="10" t="s">
+      <c r="E217" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
-      <c r="A218" s="6"/>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A218" s="11"/>
       <c r="B218" s="12"/>
-      <c r="C218" s="9" t="s">
+      <c r="C218" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D218" s="9" t="s">
+      <c r="D218" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E218" s="10" t="s">
+      <c r="E218" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
-      <c r="A219" s="6"/>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A219" s="11"/>
       <c r="B219" s="12"/>
-      <c r="C219" s="9" t="s">
+      <c r="C219" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D219" s="9" t="s">
+      <c r="D219" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E219" s="10" t="s">
+      <c r="E219" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
-      <c r="A220" s="6"/>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A220" s="11"/>
       <c r="B220" s="12"/>
-      <c r="C220" s="9" t="s">
+      <c r="C220" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D220" s="9"/>
-      <c r="E220" s="10" t="s">
+      <c r="D220" s="7"/>
+      <c r="E220" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
-      <c r="A221" s="6"/>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A221" s="11"/>
       <c r="B221" s="12"/>
-      <c r="C221" s="9" t="s">
+      <c r="C221" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D221" s="9"/>
-      <c r="E221" s="10" t="s">
+      <c r="D221" s="7"/>
+      <c r="E221" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
-      <c r="A222" s="6"/>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A222" s="11"/>
       <c r="B222" s="12"/>
-      <c r="C222" s="9" t="s">
+      <c r="C222" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D222" s="9"/>
-      <c r="E222" s="10" t="s">
+      <c r="D222" s="7"/>
+      <c r="E222" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
-      <c r="A223" s="6"/>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A223" s="11"/>
       <c r="B223" s="12"/>
-      <c r="C223" s="9" t="s">
+      <c r="C223" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D223" s="9"/>
-      <c r="E223" s="10" t="s">
+      <c r="D223" s="7"/>
+      <c r="E223" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
-      <c r="A224" s="6"/>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A224" s="11"/>
       <c r="B224" s="12"/>
-      <c r="C224" s="9" t="s">
+      <c r="C224" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D224" s="9"/>
-      <c r="E224" s="10" t="s">
+      <c r="D224" s="7"/>
+      <c r="E224" s="8" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
-      <c r="A225" s="6"/>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A225" s="11"/>
       <c r="B225" s="12"/>
-      <c r="C225" s="9" t="s">
+      <c r="C225" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D225" s="9"/>
-      <c r="E225" s="10" t="s">
+      <c r="D225" s="7"/>
+      <c r="E225" s="8" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
-      <c r="A226" s="6"/>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A226" s="11"/>
       <c r="B226" s="12"/>
-      <c r="C226" s="9" t="s">
+      <c r="C226" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D226" s="9"/>
-      <c r="E226" s="10" t="s">
+      <c r="D226" s="7"/>
+      <c r="E226" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
-      <c r="A227" s="6"/>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A227" s="11"/>
       <c r="B227" s="12"/>
-      <c r="C227" s="9" t="s">
+      <c r="C227" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D227" s="9"/>
-      <c r="E227" s="10" t="s">
+      <c r="D227" s="7"/>
+      <c r="E227" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
-      <c r="A228" s="6"/>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A228" s="11"/>
       <c r="B228" s="12"/>
-      <c r="C228" s="9" t="s">
+      <c r="C228" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D228" s="9"/>
-      <c r="E228" s="10" t="s">
+      <c r="D228" s="7"/>
+      <c r="E228" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
-      <c r="A229" s="6"/>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A229" s="11"/>
       <c r="B229" s="12"/>
-      <c r="C229" s="9" t="s">
+      <c r="C229" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D229" s="9"/>
-      <c r="E229" s="10" t="s">
+      <c r="D229" s="7"/>
+      <c r="E229" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
-      <c r="A230" s="6"/>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A230" s="11"/>
       <c r="B230" s="12"/>
-      <c r="C230" s="9" t="s">
+      <c r="C230" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D230" s="9"/>
-      <c r="E230" s="10" t="s">
+      <c r="D230" s="7"/>
+      <c r="E230" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
-      <c r="A231" s="6"/>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A231" s="11"/>
       <c r="B231" s="12"/>
-      <c r="C231" s="9" t="s">
+      <c r="C231" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D231" s="9"/>
-      <c r="E231" s="10" t="s">
+      <c r="D231" s="7"/>
+      <c r="E231" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
-      <c r="A232" s="6" t="s">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A232" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="B232" s="6" t="s">
+      <c r="B232" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C232" s="7" t="s">
+      <c r="C232" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D232" s="7"/>
-      <c r="E232" s="13"/>
-    </row>
-    <row r="233" spans="1:5">
-      <c r="A233" s="6"/>
-      <c r="B233" s="6"/>
-      <c r="C233" s="9" t="s">
+      <c r="D232" s="5"/>
+      <c r="E232" s="10"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A233" s="11"/>
+      <c r="B233" s="11"/>
+      <c r="C233" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D233" s="9" t="s">
+      <c r="D233" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E233" s="10" t="s">
+      <c r="E233" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
-      <c r="A234" s="6"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="9" t="s">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A234" s="11"/>
+      <c r="B234" s="11"/>
+      <c r="C234" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D234" s="9" t="s">
+      <c r="D234" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E234" s="10" t="s">
+      <c r="E234" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
-      <c r="A235" s="6"/>
-      <c r="B235" s="6"/>
-      <c r="C235" s="9" t="s">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A235" s="11"/>
+      <c r="B235" s="11"/>
+      <c r="C235" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D235" s="9" t="s">
+      <c r="D235" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E235" s="10" t="s">
+      <c r="E235" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
-      <c r="A236" s="6"/>
-      <c r="B236" s="6"/>
-      <c r="C236" s="9" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A236" s="11"/>
+      <c r="B236" s="11"/>
+      <c r="C236" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D236" s="9"/>
-      <c r="E236" s="10" t="s">
+      <c r="D236" s="7"/>
+      <c r="E236" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
-      <c r="A237" s="6"/>
-      <c r="B237" s="6"/>
-      <c r="C237" s="9" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A237" s="11"/>
+      <c r="B237" s="11"/>
+      <c r="C237" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D237" s="9"/>
-      <c r="E237" s="10" t="s">
+      <c r="D237" s="7"/>
+      <c r="E237" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
-      <c r="A238" s="6"/>
-      <c r="B238" s="6"/>
-      <c r="C238" s="9" t="s">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A238" s="11"/>
+      <c r="B238" s="11"/>
+      <c r="C238" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="D238" s="9"/>
-      <c r="E238" s="10" t="s">
+      <c r="D238" s="7"/>
+      <c r="E238" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
-      <c r="A239" s="6"/>
-      <c r="B239" s="6"/>
-      <c r="C239" s="9" t="s">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A239" s="11"/>
+      <c r="B239" s="11"/>
+      <c r="C239" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D239" s="9"/>
-      <c r="E239" s="10" t="s">
+      <c r="D239" s="7"/>
+      <c r="E239" s="8" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
-      <c r="A240" s="6"/>
-      <c r="B240" s="6"/>
-      <c r="C240" s="9" t="s">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A240" s="11"/>
+      <c r="B240" s="11"/>
+      <c r="C240" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D240" s="9"/>
-      <c r="E240" s="10" t="s">
+      <c r="D240" s="7"/>
+      <c r="E240" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
-      <c r="A241" s="6"/>
-      <c r="B241" s="6"/>
-      <c r="C241" s="9" t="s">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="11"/>
+      <c r="B241" s="11"/>
+      <c r="C241" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D241" s="9"/>
-      <c r="E241" s="10" t="s">
+      <c r="D241" s="7"/>
+      <c r="E241" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
-      <c r="A242" s="6" t="s">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B242" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="C242" s="7" t="s">
+      <c r="C242" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D242" s="7"/>
-      <c r="E242" s="13"/>
-    </row>
-    <row r="243" spans="1:5">
-      <c r="A243" s="6"/>
-      <c r="B243" s="6"/>
-      <c r="C243" s="9" t="s">
+      <c r="D242" s="5"/>
+      <c r="E242" s="10"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="11"/>
+      <c r="B243" s="11"/>
+      <c r="C243" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D243" s="9" t="s">
+      <c r="D243" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E243" s="10" t="s">
+      <c r="E243" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
-      <c r="A244" s="6"/>
-      <c r="B244" s="6"/>
-      <c r="C244" s="9" t="s">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="11"/>
+      <c r="B244" s="11"/>
+      <c r="C244" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D244" s="9" t="s">
+      <c r="D244" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E244" s="10" t="s">
+      <c r="E244" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
-      <c r="A245" s="6"/>
-      <c r="B245" s="6"/>
-      <c r="C245" s="9" t="s">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="11"/>
+      <c r="B245" s="11"/>
+      <c r="C245" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D245" s="9" t="s">
+      <c r="D245" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E245" s="10" t="s">
+      <c r="E245" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
-      <c r="A246" s="6"/>
-      <c r="B246" s="6"/>
-      <c r="C246" s="9" t="s">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="11"/>
+      <c r="B246" s="11"/>
+      <c r="C246" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D246" s="9"/>
-      <c r="E246" s="10" t="s">
+      <c r="D246" s="7"/>
+      <c r="E246" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="6"/>
-      <c r="B247" s="6"/>
-      <c r="C247" s="9" t="s">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="11"/>
+      <c r="B247" s="11"/>
+      <c r="C247" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D247" s="9"/>
-      <c r="E247" s="10" t="s">
+      <c r="D247" s="7"/>
+      <c r="E247" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
-      <c r="A248" s="6"/>
-      <c r="B248" s="6"/>
-      <c r="C248" s="9" t="s">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="11"/>
+      <c r="B248" s="11"/>
+      <c r="C248" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D248" s="9"/>
-      <c r="E248" s="10" t="s">
+      <c r="D248" s="7"/>
+      <c r="E248" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
-      <c r="A249" s="6"/>
-      <c r="B249" s="6"/>
-      <c r="C249" s="9" t="s">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="11"/>
+      <c r="B249" s="11"/>
+      <c r="C249" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D249" s="9"/>
-      <c r="E249" s="10" t="s">
+      <c r="D249" s="7"/>
+      <c r="E249" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
-      <c r="A250" s="6"/>
-      <c r="B250" s="6"/>
-      <c r="C250" s="9" t="s">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="11"/>
+      <c r="B250" s="11"/>
+      <c r="C250" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D250" s="9"/>
-      <c r="E250" s="10" t="s">
+      <c r="D250" s="7"/>
+      <c r="E250" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
-      <c r="A251" s="6"/>
-      <c r="B251" s="6"/>
-      <c r="C251" s="9" t="s">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="11"/>
+      <c r="B251" s="11"/>
+      <c r="C251" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="D251" s="9"/>
-      <c r="E251" s="10" t="s">
+      <c r="D251" s="7"/>
+      <c r="E251" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
-      <c r="A252" s="6"/>
-      <c r="B252" s="6"/>
-      <c r="C252" s="9" t="s">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="11"/>
+      <c r="B252" s="11"/>
+      <c r="C252" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D252" s="9"/>
-      <c r="E252" s="10" t="s">
+      <c r="D252" s="7"/>
+      <c r="E252" s="8" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
-      <c r="A253" s="6"/>
-      <c r="B253" s="6"/>
-      <c r="C253" s="9" t="s">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="11"/>
+      <c r="B253" s="11"/>
+      <c r="C253" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D253" s="9"/>
-      <c r="E253" s="10" t="s">
+      <c r="D253" s="7"/>
+      <c r="E253" s="8" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A29"/>
-    <mergeCell ref="A30:A42"/>
-    <mergeCell ref="A43:A54"/>
-    <mergeCell ref="A55:A68"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="A79:A88"/>
-    <mergeCell ref="A89:A105"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="A116:A130"/>
-    <mergeCell ref="A131:A138"/>
-    <mergeCell ref="A139:A148"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="A155:A162"/>
-    <mergeCell ref="A163:A169"/>
-    <mergeCell ref="A170:A180"/>
-    <mergeCell ref="A181:A191"/>
-    <mergeCell ref="A192:A200"/>
-    <mergeCell ref="A201:A215"/>
-    <mergeCell ref="A216:A231"/>
+    <mergeCell ref="B216:B231"/>
+    <mergeCell ref="B232:B241"/>
+    <mergeCell ref="B242:B253"/>
+    <mergeCell ref="B163:B169"/>
+    <mergeCell ref="B170:B180"/>
+    <mergeCell ref="B181:B191"/>
+    <mergeCell ref="B192:B200"/>
+    <mergeCell ref="B201:B215"/>
     <mergeCell ref="A232:A241"/>
     <mergeCell ref="A242:A253"/>
     <mergeCell ref="B2:B15"/>
@@ -4679,17 +4069,29 @@
     <mergeCell ref="B139:B148"/>
     <mergeCell ref="B149:B154"/>
     <mergeCell ref="B155:B162"/>
-    <mergeCell ref="B163:B169"/>
-    <mergeCell ref="B170:B180"/>
-    <mergeCell ref="B181:B191"/>
-    <mergeCell ref="B192:B200"/>
-    <mergeCell ref="B201:B215"/>
-    <mergeCell ref="B216:B231"/>
-    <mergeCell ref="B232:B241"/>
-    <mergeCell ref="B242:B253"/>
+    <mergeCell ref="A170:A180"/>
+    <mergeCell ref="A181:A191"/>
+    <mergeCell ref="A192:A200"/>
+    <mergeCell ref="A201:A215"/>
+    <mergeCell ref="A216:A231"/>
+    <mergeCell ref="A131:A138"/>
+    <mergeCell ref="A139:A148"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="A155:A162"/>
+    <mergeCell ref="A163:A169"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="A89:A105"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="A116:A130"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A29"/>
+    <mergeCell ref="A30:A42"/>
+    <mergeCell ref="A43:A54"/>
+    <mergeCell ref="A55:A68"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/数据包字段说明.xlsx
+++ b/data/数据包字段说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JichenLi\My\File\Code\Python\SES\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E40FC5D-694E-4C00-9D5F-F606B63A9224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FAB754-F897-418E-A977-EA9C7D2233D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="198">
   <si>
     <t>表名</t>
   </si>
@@ -611,13 +611,17 @@
   </si>
   <si>
     <t>作业库作业id</t>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,15 +630,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -665,7 +685,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -688,13 +708,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -729,16 +786,58 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1017,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1048,10 +1147,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1063,8 +1162,8 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1076,8 +1175,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
       <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
@@ -1089,8 +1188,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1102,8 +1201,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="171" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1115,8 +1214,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1128,8 +1227,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1141,8 +1240,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1154,8 +1253,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1167,8 +1266,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1180,8 +1279,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
@@ -1193,8 +1292,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
@@ -1206,8 +1305,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="7" t="s">
         <v>36</v>
       </c>
@@ -1217,8 +1316,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="7" t="s">
         <v>38</v>
       </c>
@@ -1230,10 +1329,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="12" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1245,8 +1344,8 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
-      <c r="B17" s="11"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
@@ -1256,8 +1355,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
-      <c r="B18" s="11"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
@@ -1267,8 +1366,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
@@ -1278,8 +1377,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="12"/>
-      <c r="B20" s="11"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="7" t="s">
         <v>22</v>
       </c>
@@ -1291,8 +1390,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="11"/>
+      <c r="A21" s="11"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
@@ -1304,8 +1403,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="12"/>
-      <c r="B22" s="11"/>
+      <c r="A22" s="11"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1317,8 +1416,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="11"/>
+      <c r="A23" s="11"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="7" t="s">
         <v>42</v>
       </c>
@@ -1330,8 +1429,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="12"/>
-      <c r="B24" s="11"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="7" t="s">
         <v>44</v>
       </c>
@@ -1343,8 +1442,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="11"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="7" t="s">
         <v>47</v>
       </c>
@@ -1356,8 +1455,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="7" t="s">
         <v>49</v>
       </c>
@@ -1369,8 +1468,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="11"/>
+      <c r="A27" s="11"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="7" t="s">
         <v>52</v>
       </c>
@@ -1382,8 +1481,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
-      <c r="B28" s="11"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="7" t="s">
         <v>31</v>
       </c>
@@ -1395,8 +1494,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="11"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="7" t="s">
         <v>38</v>
       </c>
@@ -1408,10 +1507,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="12" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1423,8 +1522,8 @@
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="7" t="s">
         <v>9</v>
       </c>
@@ -1436,8 +1535,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="7" t="s">
         <v>12</v>
       </c>
@@ -1449,8 +1548,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="7" t="s">
         <v>14</v>
       </c>
@@ -1462,8 +1561,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="7" t="s">
         <v>22</v>
       </c>
@@ -1475,8 +1574,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="7" t="s">
         <v>60</v>
       </c>
@@ -1488,8 +1587,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="7" t="s">
         <v>63</v>
       </c>
@@ -1501,8 +1600,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="7" t="s">
         <v>65</v>
       </c>
@@ -1514,8 +1613,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="7" t="s">
         <v>24</v>
       </c>
@@ -1527,8 +1626,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="7" t="s">
         <v>68</v>
       </c>
@@ -1540,8 +1639,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="7" t="s">
         <v>70</v>
       </c>
@@ -1553,8 +1652,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="7" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1665,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="7" t="s">
         <v>38</v>
       </c>
@@ -1579,21 +1678,21 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="11" t="s">
+      <c r="A43" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>7</v>
+      <c r="C43" s="14" t="s">
+        <v>197</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="7" t="s">
         <v>9</v>
       </c>
@@ -1605,8 +1704,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="7" t="s">
         <v>12</v>
       </c>
@@ -1618,8 +1717,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="7" t="s">
         <v>14</v>
       </c>
@@ -1629,8 +1728,8 @@
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="7" t="s">
         <v>22</v>
       </c>
@@ -1640,8 +1739,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="7" t="s">
         <v>60</v>
       </c>
@@ -1651,8 +1750,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="7" t="s">
         <v>77</v>
       </c>
@@ -1662,8 +1761,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="7" t="s">
         <v>79</v>
       </c>
@@ -1673,8 +1772,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="7" t="s">
         <v>70</v>
       </c>
@@ -1684,8 +1783,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
       <c r="C52" s="7" t="s">
         <v>80</v>
       </c>
@@ -1695,8 +1794,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
@@ -1706,8 +1805,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="12"/>
       <c r="C54" s="7" t="s">
         <v>38</v>
       </c>
@@ -1717,10 +1816,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -1730,8 +1829,8 @@
       <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="11"/>
       <c r="C56" s="7" t="s">
         <v>9</v>
       </c>
@@ -1743,8 +1842,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="11"/>
       <c r="C57" s="7" t="s">
         <v>12</v>
       </c>
@@ -1756,8 +1855,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="11"/>
       <c r="C58" s="7" t="s">
         <v>14</v>
       </c>
@@ -1769,8 +1868,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="11"/>
       <c r="C59" s="7" t="s">
         <v>84</v>
       </c>
@@ -1780,8 +1879,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="11"/>
       <c r="C60" s="7" t="s">
         <v>60</v>
       </c>
@@ -1791,8 +1890,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="11"/>
       <c r="C61" s="7" t="s">
         <v>22</v>
       </c>
@@ -1802,8 +1901,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="11"/>
       <c r="C62" s="7" t="s">
         <v>24</v>
       </c>
@@ -1813,8 +1912,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="11"/>
       <c r="C63" s="7" t="s">
         <v>87</v>
       </c>
@@ -1824,8 +1923,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="11"/>
       <c r="C64" s="7" t="s">
         <v>89</v>
       </c>
@@ -1835,8 +1934,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="11"/>
       <c r="C65" s="7" t="s">
         <v>91</v>
       </c>
@@ -1846,8 +1945,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="11"/>
       <c r="C66" s="7" t="s">
         <v>93</v>
       </c>
@@ -1857,8 +1956,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="11"/>
       <c r="C67" s="7" t="s">
         <v>94</v>
       </c>
@@ -1868,8 +1967,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="11"/>
       <c r="C68" s="7" t="s">
         <v>38</v>
       </c>
@@ -1879,10 +1978,10 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="12" t="s">
         <v>97</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -1892,8 +1991,8 @@
       <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="11"/>
-      <c r="B70" s="11"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
       <c r="C70" s="7" t="s">
         <v>9</v>
       </c>
@@ -1905,8 +2004,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="12"/>
       <c r="C71" s="7" t="s">
         <v>12</v>
       </c>
@@ -1918,8 +2017,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="11"/>
-      <c r="B72" s="11"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="7" t="s">
         <v>14</v>
       </c>
@@ -1931,8 +2030,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="11"/>
-      <c r="B73" s="11"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="12"/>
       <c r="C73" s="7" t="s">
         <v>22</v>
       </c>
@@ -1942,8 +2041,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="11"/>
-      <c r="B74" s="11"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="12"/>
       <c r="C74" s="7" t="s">
         <v>24</v>
       </c>
@@ -1953,8 +2052,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="7" t="s">
         <v>84</v>
       </c>
@@ -1964,8 +2063,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="11"/>
-      <c r="B76" s="11"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
       <c r="C76" s="7" t="s">
         <v>60</v>
       </c>
@@ -1975,8 +2074,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="11"/>
-      <c r="B77" s="11"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="7" t="s">
         <v>100</v>
       </c>
@@ -1986,8 +2085,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="11"/>
-      <c r="B78" s="11"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
       <c r="C78" s="7" t="s">
         <v>38</v>
       </c>
@@ -1997,10 +2096,10 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="B79" s="11" t="s">
+      <c r="B79" s="12" t="s">
         <v>103</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -2012,8 +2111,8 @@
       <c r="E79" s="10"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="11"/>
-      <c r="B80" s="11"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
       <c r="C80" s="7" t="s">
         <v>9</v>
       </c>
@@ -2025,8 +2124,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="7" t="s">
         <v>12</v>
       </c>
@@ -2038,8 +2137,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="11"/>
-      <c r="B82" s="11"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
       <c r="C82" s="7" t="s">
         <v>14</v>
       </c>
@@ -2051,8 +2150,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="7" t="s">
         <v>22</v>
       </c>
@@ -2062,8 +2161,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="11"/>
-      <c r="B84" s="11"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
       <c r="C84" s="7" t="s">
         <v>24</v>
       </c>
@@ -2073,8 +2172,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="11"/>
-      <c r="B85" s="11"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
       <c r="C85" s="7" t="s">
         <v>26</v>
       </c>
@@ -2084,8 +2183,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
       <c r="C86" s="7" t="s">
         <v>93</v>
       </c>
@@ -2095,8 +2194,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
       <c r="C87" s="7" t="s">
         <v>49</v>
       </c>
@@ -2106,8 +2205,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="11"/>
-      <c r="B88" s="11"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
       <c r="C88" s="7" t="s">
         <v>38</v>
       </c>
@@ -2117,10 +2216,10 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="13" t="s">
         <v>106</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -2130,8 +2229,8 @@
       <c r="E89" s="10"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="11"/>
-      <c r="B90" s="14"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
       <c r="C90" s="7" t="s">
         <v>9</v>
       </c>
@@ -2143,8 +2242,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="11"/>
-      <c r="B91" s="14"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="13"/>
       <c r="C91" s="7" t="s">
         <v>12</v>
       </c>
@@ -2156,8 +2255,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="11"/>
-      <c r="B92" s="14"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="13"/>
       <c r="C92" s="7" t="s">
         <v>14</v>
       </c>
@@ -2169,8 +2268,8 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="11"/>
-      <c r="B93" s="14"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="13"/>
       <c r="C93" s="7" t="s">
         <v>22</v>
       </c>
@@ -2180,8 +2279,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="11"/>
-      <c r="B94" s="14"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="7" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2290,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="11"/>
-      <c r="B95" s="14"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="13"/>
       <c r="C95" s="7" t="s">
         <v>108</v>
       </c>
@@ -2202,8 +2301,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="11"/>
-      <c r="B96" s="14"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="13"/>
       <c r="C96" s="7" t="s">
         <v>28</v>
       </c>
@@ -2213,8 +2312,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="11"/>
-      <c r="B97" s="14"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="13"/>
       <c r="C97" s="7" t="s">
         <v>111</v>
       </c>
@@ -2226,8 +2325,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="11"/>
-      <c r="B98" s="14"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="7" t="s">
         <v>113</v>
       </c>
@@ -2237,8 +2336,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="11"/>
-      <c r="B99" s="14"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="13"/>
       <c r="C99" s="7" t="s">
         <v>115</v>
       </c>
@@ -2248,8 +2347,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="11"/>
-      <c r="B100" s="14"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="13"/>
       <c r="C100" s="7" t="s">
         <v>31</v>
       </c>
@@ -2259,8 +2358,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="11"/>
-      <c r="B101" s="14"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="13"/>
       <c r="C101" s="7" t="s">
         <v>118</v>
       </c>
@@ -2272,8 +2371,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="11"/>
-      <c r="B102" s="14"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="13"/>
       <c r="C102" s="7" t="s">
         <v>93</v>
       </c>
@@ -2283,8 +2382,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="11"/>
-      <c r="B103" s="14"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="13"/>
       <c r="C103" s="7" t="s">
         <v>38</v>
       </c>
@@ -2294,8 +2393,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="11"/>
-      <c r="B104" s="14"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="13"/>
       <c r="C104" s="7" t="s">
         <v>26</v>
       </c>
@@ -2305,8 +2404,8 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="11"/>
-      <c r="B105" s="14"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="13"/>
       <c r="C105" s="7" t="s">
         <v>121</v>
       </c>
@@ -2316,10 +2415,10 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="12" t="s">
         <v>124</v>
       </c>
       <c r="C106" s="5" t="s">
@@ -2329,8 +2428,8 @@
       <c r="E106" s="10"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="12"/>
       <c r="C107" s="7" t="s">
         <v>9</v>
       </c>
@@ -2340,8 +2439,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="12"/>
       <c r="C108" s="7" t="s">
         <v>12</v>
       </c>
@@ -2351,8 +2450,8 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="11"/>
-      <c r="B109" s="11"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="12"/>
       <c r="C109" s="7" t="s">
         <v>14</v>
       </c>
@@ -2362,8 +2461,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="11"/>
-      <c r="B110" s="11"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="12"/>
       <c r="C110" s="7" t="s">
         <v>22</v>
       </c>
@@ -2373,8 +2472,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
       <c r="C111" s="7" t="s">
         <v>24</v>
       </c>
@@ -2384,8 +2483,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
       <c r="C112" s="7" t="s">
         <v>125</v>
       </c>
@@ -2395,8 +2494,8 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="11"/>
-      <c r="B113" s="11"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
       <c r="C113" s="7" t="s">
         <v>93</v>
       </c>
@@ -2406,8 +2505,8 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="11"/>
-      <c r="B114" s="11"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
       <c r="C114" s="7" t="s">
         <v>127</v>
       </c>
@@ -2417,8 +2516,8 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="11"/>
-      <c r="B115" s="11"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
       <c r="C115" s="7" t="s">
         <v>38</v>
       </c>
@@ -2428,10 +2527,10 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -2441,8 +2540,8 @@
       <c r="E116" s="10"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="11"/>
-      <c r="B117" s="11"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="12"/>
       <c r="C117" s="7" t="s">
         <v>9</v>
       </c>
@@ -2454,8 +2553,8 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="11"/>
-      <c r="B118" s="11"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="12"/>
       <c r="C118" s="7" t="s">
         <v>12</v>
       </c>
@@ -2467,8 +2566,8 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="11"/>
-      <c r="B119" s="11"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
       <c r="C119" s="7" t="s">
         <v>14</v>
       </c>
@@ -2480,8 +2579,8 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="11"/>
-      <c r="B120" s="11"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
       <c r="C120" s="7" t="s">
         <v>22</v>
       </c>
@@ -2491,8 +2590,8 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="11"/>
-      <c r="B121" s="11"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="12"/>
       <c r="C121" s="7" t="s">
         <v>24</v>
       </c>
@@ -2502,8 +2601,8 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="11"/>
-      <c r="B122" s="11"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
       <c r="C122" s="7" t="s">
         <v>113</v>
       </c>
@@ -2513,8 +2612,8 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="11"/>
-      <c r="B123" s="11"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
       <c r="C123" s="7" t="s">
         <v>132</v>
       </c>
@@ -2524,8 +2623,8 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="11"/>
-      <c r="B124" s="11"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
       <c r="C124" s="7" t="s">
         <v>134</v>
       </c>
@@ -2535,8 +2634,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="11"/>
-      <c r="B125" s="11"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
       <c r="C125" s="7" t="s">
         <v>136</v>
       </c>
@@ -2546,8 +2645,8 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="11"/>
-      <c r="B126" s="11"/>
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
       <c r="C126" s="7" t="s">
         <v>26</v>
       </c>
@@ -2557,8 +2656,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="11"/>
-      <c r="B127" s="11"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
       <c r="C127" s="7" t="s">
         <v>93</v>
       </c>
@@ -2568,8 +2667,8 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="11"/>
-      <c r="B128" s="11"/>
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
       <c r="C128" s="7" t="s">
         <v>108</v>
       </c>
@@ -2579,8 +2678,8 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="11"/>
-      <c r="B129" s="11"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
       <c r="C129" s="7" t="s">
         <v>127</v>
       </c>
@@ -2590,8 +2689,8 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="11"/>
-      <c r="B130" s="11"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
       <c r="C130" s="7" t="s">
         <v>38</v>
       </c>
@@ -2601,10 +2700,10 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="11" t="s">
+      <c r="A131" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="15" t="s">
         <v>139</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -2614,8 +2713,8 @@
       <c r="E131" s="10"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
+      <c r="A132" s="16"/>
+      <c r="B132" s="16"/>
       <c r="C132" s="7" t="s">
         <v>9</v>
       </c>
@@ -2627,8 +2726,8 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="11"/>
-      <c r="B133" s="11"/>
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
       <c r="C133" s="7" t="s">
         <v>12</v>
       </c>
@@ -2640,8 +2739,8 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="11"/>
-      <c r="B134" s="11"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="16"/>
       <c r="C134" s="7" t="s">
         <v>14</v>
       </c>
@@ -2653,8 +2752,8 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="11"/>
-      <c r="B135" s="11"/>
+      <c r="A135" s="16"/>
+      <c r="B135" s="16"/>
       <c r="C135" s="7" t="s">
         <v>22</v>
       </c>
@@ -2664,8 +2763,8 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="11"/>
-      <c r="B136" s="11"/>
+      <c r="A136" s="16"/>
+      <c r="B136" s="16"/>
       <c r="C136" s="7" t="s">
         <v>24</v>
       </c>
@@ -2675,8 +2774,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="11"/>
-      <c r="B137" s="11"/>
+      <c r="A137" s="16"/>
+      <c r="B137" s="16"/>
       <c r="C137" s="7" t="s">
         <v>100</v>
       </c>
@@ -2686,8 +2785,8 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="11"/>
-      <c r="B138" s="11"/>
+      <c r="A138" s="16"/>
+      <c r="B138" s="16"/>
       <c r="C138" s="7" t="s">
         <v>26</v>
       </c>
@@ -2699,12 +2798,8 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="B139" s="11" t="s">
-        <v>142</v>
-      </c>
+      <c r="A139" s="17"/>
+      <c r="B139" s="17"/>
       <c r="C139" s="7" t="s">
         <v>38</v>
       </c>
@@ -2714,8 +2809,12 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="13"/>
-      <c r="B140" s="11"/>
+      <c r="A140" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" s="15" t="s">
+        <v>142</v>
+      </c>
       <c r="C140" s="5" t="s">
         <v>7</v>
       </c>
@@ -2723,8 +2822,8 @@
       <c r="E140" s="10"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="13"/>
-      <c r="B141" s="11"/>
+      <c r="A141" s="27"/>
+      <c r="B141" s="16"/>
       <c r="C141" s="7" t="s">
         <v>9</v>
       </c>
@@ -2736,8 +2835,8 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="13"/>
-      <c r="B142" s="11"/>
+      <c r="A142" s="27"/>
+      <c r="B142" s="16"/>
       <c r="C142" s="7" t="s">
         <v>12</v>
       </c>
@@ -2749,8 +2848,8 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="13"/>
-      <c r="B143" s="11"/>
+      <c r="A143" s="27"/>
+      <c r="B143" s="16"/>
       <c r="C143" s="7" t="s">
         <v>14</v>
       </c>
@@ -2762,8 +2861,8 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="13"/>
-      <c r="B144" s="11"/>
+      <c r="A144" s="27"/>
+      <c r="B144" s="16"/>
       <c r="C144" s="7" t="s">
         <v>22</v>
       </c>
@@ -2773,8 +2872,8 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="13"/>
-      <c r="B145" s="11"/>
+      <c r="A145" s="27"/>
+      <c r="B145" s="16"/>
       <c r="C145" s="7" t="s">
         <v>24</v>
       </c>
@@ -2784,8 +2883,8 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="13"/>
-      <c r="B146" s="11"/>
+      <c r="A146" s="27"/>
+      <c r="B146" s="16"/>
       <c r="C146" s="7" t="s">
         <v>26</v>
       </c>
@@ -2795,8 +2894,8 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="13"/>
-      <c r="B147" s="11"/>
+      <c r="A147" s="27"/>
+      <c r="B147" s="16"/>
       <c r="C147" s="7" t="s">
         <v>84</v>
       </c>
@@ -2806,8 +2905,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="13"/>
-      <c r="B148" s="11"/>
+      <c r="A148" s="28"/>
+      <c r="B148" s="17"/>
       <c r="C148" s="7" t="s">
         <v>38</v>
       </c>
@@ -2817,249 +2916,245 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="7" t="s">
+      <c r="C149" s="19" t="s">
         <v>146</v>
       </c>
-      <c r="D149" s="7"/>
-      <c r="E149" s="8" t="s">
+      <c r="D149" s="19"/>
+      <c r="E149" s="20" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="13"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="5" t="s">
+      <c r="A150" s="18"/>
+      <c r="B150" s="18"/>
+      <c r="C150" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D150" s="5"/>
-      <c r="E150" s="10"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="22"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="13"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="7" t="s">
+      <c r="A151" s="18"/>
+      <c r="B151" s="18"/>
+      <c r="C151" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D151" s="7"/>
-      <c r="E151" s="8" t="s">
+      <c r="D151" s="19"/>
+      <c r="E151" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="13"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="7" t="s">
+      <c r="A152" s="18"/>
+      <c r="B152" s="18"/>
+      <c r="C152" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D152" s="7"/>
-      <c r="E152" s="8" t="s">
+      <c r="D152" s="19"/>
+      <c r="E152" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="13"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="7" t="s">
+      <c r="A153" s="18"/>
+      <c r="B153" s="18"/>
+      <c r="C153" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D153" s="7"/>
-      <c r="E153" s="8" t="s">
+      <c r="D153" s="19"/>
+      <c r="E153" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="13"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="7" t="s">
+      <c r="A154" s="18"/>
+      <c r="B154" s="18"/>
+      <c r="C154" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D154" s="7"/>
-      <c r="E154" s="8" t="s">
+      <c r="D154" s="19"/>
+      <c r="E154" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="11" t="s">
+      <c r="A155" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="C155" s="7" t="s">
+      <c r="C155" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D155" s="7"/>
-      <c r="E155" s="8" t="s">
+      <c r="D155" s="19"/>
+      <c r="E155" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="11"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="5" t="s">
+      <c r="A156" s="24"/>
+      <c r="B156" s="24"/>
+      <c r="C156" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D156" s="5"/>
-      <c r="E156" s="10"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="22"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="11"/>
-      <c r="B157" s="11"/>
-      <c r="C157" s="7" t="s">
+      <c r="A157" s="24"/>
+      <c r="B157" s="24"/>
+      <c r="C157" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D157" s="7"/>
-      <c r="E157" s="8" t="s">
+      <c r="D157" s="19"/>
+      <c r="E157" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="11"/>
-      <c r="B158" s="11"/>
-      <c r="C158" s="7" t="s">
+      <c r="A158" s="24"/>
+      <c r="B158" s="24"/>
+      <c r="C158" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D158" s="7"/>
-      <c r="E158" s="8" t="s">
+      <c r="D158" s="19"/>
+      <c r="E158" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="11"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="7" t="s">
+      <c r="A159" s="24"/>
+      <c r="B159" s="24"/>
+      <c r="C159" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D159" s="7"/>
-      <c r="E159" s="8" t="s">
+      <c r="D159" s="19"/>
+      <c r="E159" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="11"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="7" t="s">
+      <c r="A160" s="24"/>
+      <c r="B160" s="24"/>
+      <c r="C160" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D160" s="7"/>
-      <c r="E160" s="8" t="s">
+      <c r="D160" s="19"/>
+      <c r="E160" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="11"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="7" t="s">
+      <c r="A161" s="24"/>
+      <c r="B161" s="24"/>
+      <c r="C161" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D161" s="7"/>
-      <c r="E161" s="8" t="s">
+      <c r="D161" s="19"/>
+      <c r="E161" s="20" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="11"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="7" t="s">
+      <c r="A162" s="24"/>
+      <c r="B162" s="24"/>
+      <c r="C162" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D162" s="7"/>
-      <c r="E162" s="8" t="s">
+      <c r="D162" s="19"/>
+      <c r="E162" s="20" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="11" t="s">
+      <c r="A163" s="25"/>
+      <c r="B163" s="25"/>
+      <c r="C163" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D163" s="19"/>
+      <c r="E163" s="20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B164" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="C163" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D163" s="7"/>
-      <c r="E163" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="11"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="10"/>
+      <c r="D164" s="21"/>
+      <c r="E164" s="22"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="11"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="7" t="s">
+      <c r="A165" s="24"/>
+      <c r="B165" s="24"/>
+      <c r="C165" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D165" s="7"/>
-      <c r="E165" s="8" t="s">
+      <c r="D165" s="19"/>
+      <c r="E165" s="20" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="11"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="7" t="s">
+      <c r="A166" s="24"/>
+      <c r="B166" s="24"/>
+      <c r="C166" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D166" s="7"/>
-      <c r="E166" s="8" t="s">
+      <c r="D166" s="19"/>
+      <c r="E166" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="11"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="7" t="s">
+      <c r="A167" s="24"/>
+      <c r="B167" s="24"/>
+      <c r="C167" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D167" s="7"/>
-      <c r="E167" s="8" t="s">
+      <c r="D167" s="19"/>
+      <c r="E167" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="11"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="7" t="s">
+      <c r="A168" s="24"/>
+      <c r="B168" s="24"/>
+      <c r="C168" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D168" s="7"/>
-      <c r="E168" s="8" t="s">
+      <c r="D168" s="19"/>
+      <c r="E168" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="11"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="7" t="s">
+      <c r="A169" s="24"/>
+      <c r="B169" s="24"/>
+      <c r="C169" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="D169" s="7"/>
-      <c r="E169" s="8" t="s">
+      <c r="D169" s="19"/>
+      <c r="E169" s="20" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B170" s="11" t="s">
-        <v>156</v>
-      </c>
+      <c r="A170" s="25"/>
+      <c r="B170" s="25"/>
       <c r="C170" s="7" t="s">
         <v>38</v>
       </c>
@@ -3069,8 +3164,12 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="11"/>
-      <c r="B171" s="11"/>
+      <c r="A171" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B171" s="15" t="s">
+        <v>156</v>
+      </c>
       <c r="C171" s="5" t="s">
         <v>7</v>
       </c>
@@ -3078,8 +3177,8 @@
       <c r="E171" s="10"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="11"/>
-      <c r="B172" s="11"/>
+      <c r="A172" s="16"/>
+      <c r="B172" s="16"/>
       <c r="C172" s="7" t="s">
         <v>9</v>
       </c>
@@ -3089,8 +3188,8 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="11"/>
-      <c r="B173" s="11"/>
+      <c r="A173" s="16"/>
+      <c r="B173" s="16"/>
       <c r="C173" s="7" t="s">
         <v>12</v>
       </c>
@@ -3100,8 +3199,8 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="11"/>
-      <c r="B174" s="11"/>
+      <c r="A174" s="16"/>
+      <c r="B174" s="16"/>
       <c r="C174" s="7" t="s">
         <v>14</v>
       </c>
@@ -3111,8 +3210,8 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="11"/>
-      <c r="B175" s="11"/>
+      <c r="A175" s="16"/>
+      <c r="B175" s="16"/>
       <c r="C175" s="7" t="s">
         <v>22</v>
       </c>
@@ -3122,8 +3221,8 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="11"/>
-      <c r="B176" s="11"/>
+      <c r="A176" s="16"/>
+      <c r="B176" s="16"/>
       <c r="C176" s="7" t="s">
         <v>157</v>
       </c>
@@ -3133,8 +3232,8 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="11"/>
-      <c r="B177" s="11"/>
+      <c r="A177" s="16"/>
+      <c r="B177" s="16"/>
       <c r="C177" s="7" t="s">
         <v>159</v>
       </c>
@@ -3144,8 +3243,8 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11"/>
+      <c r="A178" s="16"/>
+      <c r="B178" s="16"/>
       <c r="C178" s="7" t="s">
         <v>49</v>
       </c>
@@ -3155,8 +3254,8 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11"/>
+      <c r="A179" s="16"/>
+      <c r="B179" s="16"/>
       <c r="C179" s="7" t="s">
         <v>38</v>
       </c>
@@ -3166,8 +3265,8 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="11"/>
-      <c r="B180" s="11"/>
+      <c r="A180" s="17"/>
+      <c r="B180" s="17"/>
       <c r="C180" s="7" t="s">
         <v>38</v>
       </c>
@@ -3177,10 +3276,10 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="11" t="s">
+      <c r="A181" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B181" s="12" t="s">
         <v>162</v>
       </c>
       <c r="C181" s="5" t="s">
@@ -3190,8 +3289,8 @@
       <c r="E181" s="10"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="11"/>
-      <c r="B182" s="11"/>
+      <c r="A182" s="12"/>
+      <c r="B182" s="12"/>
       <c r="C182" s="7" t="s">
         <v>9</v>
       </c>
@@ -3203,8 +3302,8 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="11"/>
-      <c r="B183" s="11"/>
+      <c r="A183" s="12"/>
+      <c r="B183" s="12"/>
       <c r="C183" s="7" t="s">
         <v>12</v>
       </c>
@@ -3216,8 +3315,8 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="11"/>
-      <c r="B184" s="11"/>
+      <c r="A184" s="12"/>
+      <c r="B184" s="12"/>
       <c r="C184" s="7" t="s">
         <v>14</v>
       </c>
@@ -3229,8 +3328,8 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="11"/>
-      <c r="B185" s="11"/>
+      <c r="A185" s="12"/>
+      <c r="B185" s="12"/>
       <c r="C185" s="7" t="s">
         <v>22</v>
       </c>
@@ -3240,8 +3339,8 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="11"/>
-      <c r="B186" s="11"/>
+      <c r="A186" s="12"/>
+      <c r="B186" s="12"/>
       <c r="C186" s="7" t="s">
         <v>24</v>
       </c>
@@ -3251,8 +3350,8 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="11"/>
-      <c r="B187" s="11"/>
+      <c r="A187" s="12"/>
+      <c r="B187" s="12"/>
       <c r="C187" s="7" t="s">
         <v>125</v>
       </c>
@@ -3262,8 +3361,8 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="11"/>
-      <c r="B188" s="11"/>
+      <c r="A188" s="12"/>
+      <c r="B188" s="12"/>
       <c r="C188" s="7" t="s">
         <v>93</v>
       </c>
@@ -3273,8 +3372,8 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="11"/>
-      <c r="B189" s="11"/>
+      <c r="A189" s="12"/>
+      <c r="B189" s="12"/>
       <c r="C189" s="7" t="s">
         <v>165</v>
       </c>
@@ -3284,8 +3383,8 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="11"/>
-      <c r="B190" s="11"/>
+      <c r="A190" s="12"/>
+      <c r="B190" s="12"/>
       <c r="C190" s="7" t="s">
         <v>84</v>
       </c>
@@ -3295,8 +3394,8 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="11"/>
-      <c r="B191" s="11"/>
+      <c r="A191" s="12"/>
+      <c r="B191" s="12"/>
       <c r="C191" s="7" t="s">
         <v>38</v>
       </c>
@@ -3306,10 +3405,10 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="11" t="s">
+      <c r="A192" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B192" s="11" t="s">
+      <c r="B192" s="12" t="s">
         <v>169</v>
       </c>
       <c r="C192" s="5" t="s">
@@ -3319,8 +3418,8 @@
       <c r="E192" s="10"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="11"/>
-      <c r="B193" s="11"/>
+      <c r="A193" s="12"/>
+      <c r="B193" s="12"/>
       <c r="C193" s="7" t="s">
         <v>9</v>
       </c>
@@ -3332,8 +3431,8 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="11"/>
-      <c r="B194" s="11"/>
+      <c r="A194" s="12"/>
+      <c r="B194" s="12"/>
       <c r="C194" s="7" t="s">
         <v>12</v>
       </c>
@@ -3345,8 +3444,8 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="11"/>
-      <c r="B195" s="11"/>
+      <c r="A195" s="12"/>
+      <c r="B195" s="12"/>
       <c r="C195" s="7" t="s">
         <v>14</v>
       </c>
@@ -3358,8 +3457,8 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="11"/>
-      <c r="B196" s="11"/>
+      <c r="A196" s="12"/>
+      <c r="B196" s="12"/>
       <c r="C196" s="7" t="s">
         <v>22</v>
       </c>
@@ -3369,8 +3468,8 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="11"/>
-      <c r="B197" s="11"/>
+      <c r="A197" s="12"/>
+      <c r="B197" s="12"/>
       <c r="C197" s="7" t="s">
         <v>24</v>
       </c>
@@ -3380,8 +3479,8 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="11"/>
-      <c r="B198" s="11"/>
+      <c r="A198" s="12"/>
+      <c r="B198" s="12"/>
       <c r="C198" s="7" t="s">
         <v>26</v>
       </c>
@@ -3391,8 +3490,8 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="11"/>
-      <c r="B199" s="11"/>
+      <c r="A199" s="12"/>
+      <c r="B199" s="12"/>
       <c r="C199" s="7" t="s">
         <v>113</v>
       </c>
@@ -3402,8 +3501,8 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="11"/>
-      <c r="B200" s="11"/>
+      <c r="A200" s="12"/>
+      <c r="B200" s="12"/>
       <c r="C200" s="7" t="s">
         <v>38</v>
       </c>
@@ -3413,10 +3512,10 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="11" t="s">
+      <c r="A201" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B201" s="12" t="s">
         <v>172</v>
       </c>
       <c r="C201" s="5" t="s">
@@ -3428,8 +3527,8 @@
       <c r="E201" s="6"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="11"/>
-      <c r="B202" s="11"/>
+      <c r="A202" s="12"/>
+      <c r="B202" s="12"/>
       <c r="C202" s="7" t="s">
         <v>9</v>
       </c>
@@ -3441,8 +3540,8 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="11"/>
-      <c r="B203" s="11"/>
+      <c r="A203" s="12"/>
+      <c r="B203" s="12"/>
       <c r="C203" s="7" t="s">
         <v>12</v>
       </c>
@@ -3454,8 +3553,8 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="11"/>
-      <c r="B204" s="11"/>
+      <c r="A204" s="12"/>
+      <c r="B204" s="12"/>
       <c r="C204" s="7" t="s">
         <v>14</v>
       </c>
@@ -3467,8 +3566,8 @@
       </c>
     </row>
     <row r="205" spans="1:5" ht="171" x14ac:dyDescent="0.2">
-      <c r="A205" s="11"/>
-      <c r="B205" s="11"/>
+      <c r="A205" s="12"/>
+      <c r="B205" s="12"/>
       <c r="C205" s="7" t="s">
         <v>16</v>
       </c>
@@ -3480,8 +3579,8 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="11"/>
-      <c r="B206" s="11"/>
+      <c r="A206" s="12"/>
+      <c r="B206" s="12"/>
       <c r="C206" s="7" t="s">
         <v>22</v>
       </c>
@@ -3493,8 +3592,8 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="11"/>
-      <c r="B207" s="11"/>
+      <c r="A207" s="12"/>
+      <c r="B207" s="12"/>
       <c r="C207" s="7" t="s">
         <v>24</v>
       </c>
@@ -3506,8 +3605,8 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="11"/>
-      <c r="B208" s="11"/>
+      <c r="A208" s="12"/>
+      <c r="B208" s="12"/>
       <c r="C208" s="7" t="s">
         <v>26</v>
       </c>
@@ -3519,8 +3618,8 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="11"/>
-      <c r="B209" s="11"/>
+      <c r="A209" s="12"/>
+      <c r="B209" s="12"/>
       <c r="C209" s="7" t="s">
         <v>132</v>
       </c>
@@ -3530,8 +3629,8 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="11"/>
-      <c r="B210" s="11"/>
+      <c r="A210" s="12"/>
+      <c r="B210" s="12"/>
       <c r="C210" s="7" t="s">
         <v>134</v>
       </c>
@@ -3541,8 +3640,8 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="11"/>
-      <c r="B211" s="11"/>
+      <c r="A211" s="12"/>
+      <c r="B211" s="12"/>
       <c r="C211" s="7" t="s">
         <v>31</v>
       </c>
@@ -3554,8 +3653,8 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="11"/>
-      <c r="B212" s="11"/>
+      <c r="A212" s="12"/>
+      <c r="B212" s="12"/>
       <c r="C212" s="7" t="s">
         <v>19</v>
       </c>
@@ -3567,8 +3666,8 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="11"/>
-      <c r="B213" s="11"/>
+      <c r="A213" s="12"/>
+      <c r="B213" s="12"/>
       <c r="C213" s="7" t="s">
         <v>177</v>
       </c>
@@ -3578,8 +3677,8 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="11"/>
-      <c r="B214" s="11"/>
+      <c r="A214" s="12"/>
+      <c r="B214" s="12"/>
       <c r="C214" s="7" t="s">
         <v>179</v>
       </c>
@@ -3589,8 +3688,8 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="11"/>
-      <c r="B215" s="11"/>
+      <c r="A215" s="12"/>
+      <c r="B215" s="12"/>
       <c r="C215" s="7" t="s">
         <v>38</v>
       </c>
@@ -3602,10 +3701,10 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="11" t="s">
+      <c r="A216" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B216" s="12" t="s">
+      <c r="B216" s="11" t="s">
         <v>182</v>
       </c>
       <c r="C216" s="5" t="s">
@@ -3615,8 +3714,8 @@
       <c r="E216" s="10"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="11"/>
-      <c r="B217" s="12"/>
+      <c r="A217" s="12"/>
+      <c r="B217" s="11"/>
       <c r="C217" s="7" t="s">
         <v>9</v>
       </c>
@@ -3628,8 +3727,8 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="11"/>
-      <c r="B218" s="12"/>
+      <c r="A218" s="12"/>
+      <c r="B218" s="11"/>
       <c r="C218" s="7" t="s">
         <v>12</v>
       </c>
@@ -3641,8 +3740,8 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="11"/>
-      <c r="B219" s="12"/>
+      <c r="A219" s="12"/>
+      <c r="B219" s="11"/>
       <c r="C219" s="7" t="s">
         <v>14</v>
       </c>
@@ -3654,8 +3753,8 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="11"/>
-      <c r="B220" s="12"/>
+      <c r="A220" s="12"/>
+      <c r="B220" s="11"/>
       <c r="C220" s="7" t="s">
         <v>22</v>
       </c>
@@ -3665,8 +3764,8 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="11"/>
-      <c r="B221" s="12"/>
+      <c r="A221" s="12"/>
+      <c r="B221" s="11"/>
       <c r="C221" s="7" t="s">
         <v>24</v>
       </c>
@@ -3676,8 +3775,8 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="11"/>
-      <c r="B222" s="12"/>
+      <c r="A222" s="12"/>
+      <c r="B222" s="11"/>
       <c r="C222" s="7" t="s">
         <v>183</v>
       </c>
@@ -3687,8 +3786,8 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="11"/>
-      <c r="B223" s="12"/>
+      <c r="A223" s="12"/>
+      <c r="B223" s="11"/>
       <c r="C223" s="7" t="s">
         <v>28</v>
       </c>
@@ -3698,8 +3797,8 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="11"/>
-      <c r="B224" s="12"/>
+      <c r="A224" s="12"/>
+      <c r="B224" s="11"/>
       <c r="C224" s="7" t="s">
         <v>111</v>
       </c>
@@ -3709,8 +3808,8 @@
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="11"/>
-      <c r="B225" s="12"/>
+      <c r="A225" s="12"/>
+      <c r="B225" s="11"/>
       <c r="C225" s="7" t="s">
         <v>113</v>
       </c>
@@ -3720,8 +3819,8 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="11"/>
-      <c r="B226" s="12"/>
+      <c r="A226" s="12"/>
+      <c r="B226" s="11"/>
       <c r="C226" s="7" t="s">
         <v>115</v>
       </c>
@@ -3731,8 +3830,8 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="11"/>
-      <c r="B227" s="12"/>
+      <c r="A227" s="12"/>
+      <c r="B227" s="11"/>
       <c r="C227" s="7" t="s">
         <v>31</v>
       </c>
@@ -3742,8 +3841,8 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="11"/>
-      <c r="B228" s="12"/>
+      <c r="A228" s="12"/>
+      <c r="B228" s="11"/>
       <c r="C228" s="7" t="s">
         <v>118</v>
       </c>
@@ -3753,8 +3852,8 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="11"/>
-      <c r="B229" s="12"/>
+      <c r="A229" s="12"/>
+      <c r="B229" s="11"/>
       <c r="C229" s="7" t="s">
         <v>93</v>
       </c>
@@ -3764,8 +3863,8 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="11"/>
-      <c r="B230" s="12"/>
+      <c r="A230" s="12"/>
+      <c r="B230" s="11"/>
       <c r="C230" s="7" t="s">
         <v>38</v>
       </c>
@@ -3775,8 +3874,8 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="11"/>
-      <c r="B231" s="12"/>
+      <c r="A231" s="12"/>
+      <c r="B231" s="11"/>
       <c r="C231" s="7" t="s">
         <v>26</v>
       </c>
@@ -3786,10 +3885,10 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" s="11" t="s">
+      <c r="A232" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B232" s="11" t="s">
+      <c r="B232" s="12" t="s">
         <v>189</v>
       </c>
       <c r="C232" s="5" t="s">
@@ -3799,8 +3898,8 @@
       <c r="E232" s="10"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="11"/>
-      <c r="B233" s="11"/>
+      <c r="A233" s="12"/>
+      <c r="B233" s="12"/>
       <c r="C233" s="7" t="s">
         <v>9</v>
       </c>
@@ -3812,8 +3911,8 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="11"/>
-      <c r="B234" s="11"/>
+      <c r="A234" s="12"/>
+      <c r="B234" s="12"/>
       <c r="C234" s="7" t="s">
         <v>12</v>
       </c>
@@ -3825,8 +3924,8 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="11"/>
-      <c r="B235" s="11"/>
+      <c r="A235" s="12"/>
+      <c r="B235" s="12"/>
       <c r="C235" s="7" t="s">
         <v>14</v>
       </c>
@@ -3838,8 +3937,8 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="11"/>
-      <c r="B236" s="11"/>
+      <c r="A236" s="12"/>
+      <c r="B236" s="12"/>
       <c r="C236" s="7" t="s">
         <v>22</v>
       </c>
@@ -3849,8 +3948,8 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="11"/>
-      <c r="B237" s="11"/>
+      <c r="A237" s="12"/>
+      <c r="B237" s="12"/>
       <c r="C237" s="7" t="s">
         <v>24</v>
       </c>
@@ -3860,8 +3959,8 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="11"/>
-      <c r="B238" s="11"/>
+      <c r="A238" s="12"/>
+      <c r="B238" s="12"/>
       <c r="C238" s="7" t="s">
         <v>125</v>
       </c>
@@ -3871,8 +3970,8 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="11"/>
-      <c r="B239" s="11"/>
+      <c r="A239" s="12"/>
+      <c r="B239" s="12"/>
       <c r="C239" s="7" t="s">
         <v>93</v>
       </c>
@@ -3882,8 +3981,8 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="11"/>
-      <c r="B240" s="11"/>
+      <c r="A240" s="12"/>
+      <c r="B240" s="12"/>
       <c r="C240" s="7" t="s">
         <v>191</v>
       </c>
@@ -3893,8 +3992,8 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="11"/>
-      <c r="B241" s="11"/>
+      <c r="A241" s="12"/>
+      <c r="B241" s="12"/>
       <c r="C241" s="7" t="s">
         <v>38</v>
       </c>
@@ -3904,10 +4003,10 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="11" t="s">
+      <c r="A242" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B242" s="11" t="s">
+      <c r="B242" s="12" t="s">
         <v>194</v>
       </c>
       <c r="C242" s="5" t="s">
@@ -3917,8 +4016,8 @@
       <c r="E242" s="10"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="11"/>
-      <c r="B243" s="11"/>
+      <c r="A243" s="12"/>
+      <c r="B243" s="12"/>
       <c r="C243" s="7" t="s">
         <v>9</v>
       </c>
@@ -3930,8 +4029,8 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="11"/>
-      <c r="B244" s="11"/>
+      <c r="A244" s="12"/>
+      <c r="B244" s="12"/>
       <c r="C244" s="7" t="s">
         <v>12</v>
       </c>
@@ -3943,8 +4042,8 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="11"/>
-      <c r="B245" s="11"/>
+      <c r="A245" s="12"/>
+      <c r="B245" s="12"/>
       <c r="C245" s="7" t="s">
         <v>14</v>
       </c>
@@ -3956,8 +4055,8 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="11"/>
-      <c r="B246" s="11"/>
+      <c r="A246" s="12"/>
+      <c r="B246" s="12"/>
       <c r="C246" s="7" t="s">
         <v>22</v>
       </c>
@@ -3967,8 +4066,8 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="11"/>
-      <c r="B247" s="11"/>
+      <c r="A247" s="12"/>
+      <c r="B247" s="12"/>
       <c r="C247" s="7" t="s">
         <v>24</v>
       </c>
@@ -3978,8 +4077,8 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="11"/>
-      <c r="B248" s="11"/>
+      <c r="A248" s="12"/>
+      <c r="B248" s="12"/>
       <c r="C248" s="7" t="s">
         <v>113</v>
       </c>
@@ -3989,8 +4088,8 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="11"/>
-      <c r="B249" s="11"/>
+      <c r="A249" s="12"/>
+      <c r="B249" s="12"/>
       <c r="C249" s="7" t="s">
         <v>26</v>
       </c>
@@ -4000,8 +4099,8 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="11"/>
-      <c r="B250" s="11"/>
+      <c r="A250" s="12"/>
+      <c r="B250" s="12"/>
       <c r="C250" s="7" t="s">
         <v>93</v>
       </c>
@@ -4011,8 +4110,8 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="11"/>
-      <c r="B251" s="11"/>
+      <c r="A251" s="12"/>
+      <c r="B251" s="12"/>
       <c r="C251" s="7" t="s">
         <v>183</v>
       </c>
@@ -4022,8 +4121,8 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="11"/>
-      <c r="B252" s="11"/>
+      <c r="A252" s="12"/>
+      <c r="B252" s="12"/>
       <c r="C252" s="7" t="s">
         <v>191</v>
       </c>
@@ -4033,8 +4132,8 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="11"/>
-      <c r="B253" s="11"/>
+      <c r="A253" s="12"/>
+      <c r="B253" s="12"/>
       <c r="C253" s="7" t="s">
         <v>38</v>
       </c>
@@ -4045,14 +4144,31 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B216:B231"/>
-    <mergeCell ref="B232:B241"/>
-    <mergeCell ref="B242:B253"/>
-    <mergeCell ref="B163:B169"/>
-    <mergeCell ref="B170:B180"/>
-    <mergeCell ref="B181:B191"/>
-    <mergeCell ref="B192:B200"/>
-    <mergeCell ref="B201:B215"/>
+    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="A171:A180"/>
+    <mergeCell ref="B171:B180"/>
+    <mergeCell ref="B131:B139"/>
+    <mergeCell ref="A140:A148"/>
+    <mergeCell ref="B140:B148"/>
+    <mergeCell ref="A155:A163"/>
+    <mergeCell ref="B155:B163"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A29"/>
+    <mergeCell ref="A30:A42"/>
+    <mergeCell ref="A43:A54"/>
+    <mergeCell ref="A55:A68"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="A89:A105"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="A116:A130"/>
+    <mergeCell ref="A149:A154"/>
+    <mergeCell ref="A131:A139"/>
+    <mergeCell ref="A181:A191"/>
+    <mergeCell ref="A192:A200"/>
+    <mergeCell ref="A201:A215"/>
+    <mergeCell ref="A216:A231"/>
     <mergeCell ref="A232:A241"/>
     <mergeCell ref="A242:A253"/>
     <mergeCell ref="B2:B15"/>
@@ -4065,33 +4181,16 @@
     <mergeCell ref="B89:B105"/>
     <mergeCell ref="B106:B115"/>
     <mergeCell ref="B116:B130"/>
-    <mergeCell ref="B131:B138"/>
-    <mergeCell ref="B139:B148"/>
     <mergeCell ref="B149:B154"/>
-    <mergeCell ref="B155:B162"/>
-    <mergeCell ref="A170:A180"/>
-    <mergeCell ref="A181:A191"/>
-    <mergeCell ref="A192:A200"/>
-    <mergeCell ref="A201:A215"/>
-    <mergeCell ref="A216:A231"/>
-    <mergeCell ref="A131:A138"/>
-    <mergeCell ref="A139:A148"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="A155:A162"/>
-    <mergeCell ref="A163:A169"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="A79:A88"/>
-    <mergeCell ref="A89:A105"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="A116:A130"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A29"/>
-    <mergeCell ref="A30:A42"/>
-    <mergeCell ref="A43:A54"/>
-    <mergeCell ref="A55:A68"/>
+    <mergeCell ref="B216:B231"/>
+    <mergeCell ref="B232:B241"/>
+    <mergeCell ref="B242:B253"/>
+    <mergeCell ref="B181:B191"/>
+    <mergeCell ref="B192:B200"/>
+    <mergeCell ref="B201:B215"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/数据包字段说明.xlsx
+++ b/data/数据包字段说明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25806"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26316"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JichenLi\My\File\Code\Python\SES\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30838\My\File\Code\Python\SES\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7FAB754-F897-418E-A977-EA9C7D2233D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E161485-8EB9-4B57-9BB8-CB7E41A21DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -751,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -785,29 +785,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -830,6 +809,15 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -838,6 +826,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1116,17 +1119,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B42"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="60.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1147,10 +1150,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="25" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1162,8 +1165,8 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1175,8 +1178,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
       <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
@@ -1188,8 +1191,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
       <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1201,8 +1204,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="171" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1214,8 +1217,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1227,8 +1230,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
       <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1240,8 +1243,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1253,8 +1256,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
       <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1266,8 +1269,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
       <c r="C11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1279,8 +1282,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
@@ -1292,8 +1295,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
       <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
@@ -1305,8 +1308,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="7" t="s">
         <v>36</v>
       </c>
@@ -1316,8 +1319,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
       <c r="C15" s="7" t="s">
         <v>38</v>
       </c>
@@ -1329,10 +1332,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1344,8 +1347,8 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="25"/>
       <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
@@ -1355,8 +1358,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="25"/>
       <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
@@ -1366,8 +1369,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="25"/>
       <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
@@ -1377,8 +1380,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="25"/>
       <c r="C20" s="7" t="s">
         <v>22</v>
       </c>
@@ -1390,8 +1393,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="25"/>
       <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
@@ -1403,8 +1406,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="25"/>
       <c r="C22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1416,8 +1419,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="7" t="s">
         <v>42</v>
       </c>
@@ -1429,8 +1432,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="25"/>
       <c r="C24" s="7" t="s">
         <v>44</v>
       </c>
@@ -1442,8 +1445,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="25"/>
       <c r="C25" s="7" t="s">
         <v>47</v>
       </c>
@@ -1455,8 +1458,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="25"/>
       <c r="C26" s="7" t="s">
         <v>49</v>
       </c>
@@ -1468,8 +1471,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="25"/>
       <c r="C27" s="7" t="s">
         <v>52</v>
       </c>
@@ -1481,8 +1484,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="25"/>
       <c r="C28" s="7" t="s">
         <v>31</v>
       </c>
@@ -1494,8 +1497,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="25"/>
       <c r="C29" s="7" t="s">
         <v>38</v>
       </c>
@@ -1507,10 +1510,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="25" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1522,8 +1525,8 @@
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="7" t="s">
         <v>9</v>
       </c>
@@ -1535,8 +1538,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="7" t="s">
         <v>12</v>
       </c>
@@ -1548,8 +1551,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="7" t="s">
         <v>14</v>
       </c>
@@ -1561,8 +1564,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="7" t="s">
         <v>22</v>
       </c>
@@ -1574,8 +1577,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
       <c r="C35" s="7" t="s">
         <v>60</v>
       </c>
@@ -1587,8 +1590,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
       <c r="C36" s="7" t="s">
         <v>63</v>
       </c>
@@ -1600,8 +1603,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
       <c r="C37" s="7" t="s">
         <v>65</v>
       </c>
@@ -1613,8 +1616,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
       <c r="C38" s="7" t="s">
         <v>24</v>
       </c>
@@ -1626,8 +1629,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
       <c r="C39" s="7" t="s">
         <v>68</v>
       </c>
@@ -1639,8 +1642,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
       <c r="C40" s="7" t="s">
         <v>70</v>
       </c>
@@ -1652,8 +1655,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
       <c r="C41" s="7" t="s">
         <v>26</v>
       </c>
@@ -1665,8 +1668,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
       <c r="C42" s="7" t="s">
         <v>38</v>
       </c>
@@ -1678,21 +1681,21 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="25" t="s">
         <v>74</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C43" s="11" t="s">
         <v>197</v>
       </c>
       <c r="D43" s="5"/>
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
-      <c r="B44" s="12"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
       <c r="C44" s="7" t="s">
         <v>9</v>
       </c>
@@ -1704,8 +1707,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
       <c r="C45" s="7" t="s">
         <v>12</v>
       </c>
@@ -1717,8 +1720,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
       <c r="C46" s="7" t="s">
         <v>14</v>
       </c>
@@ -1728,8 +1731,8 @@
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
-      <c r="B47" s="12"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
       <c r="C47" s="7" t="s">
         <v>22</v>
       </c>
@@ -1739,8 +1742,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
       <c r="C48" s="7" t="s">
         <v>60</v>
       </c>
@@ -1750,8 +1753,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
       <c r="C49" s="7" t="s">
         <v>77</v>
       </c>
@@ -1761,8 +1764,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
       <c r="C50" s="7" t="s">
         <v>79</v>
       </c>
@@ -1772,8 +1775,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
       <c r="C51" s="7" t="s">
         <v>70</v>
       </c>
@@ -1783,8 +1786,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
       <c r="C52" s="7" t="s">
         <v>80</v>
       </c>
@@ -1794,8 +1797,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
       <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
@@ -1805,8 +1808,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
       <c r="C54" s="7" t="s">
         <v>38</v>
       </c>
@@ -1816,10 +1819,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="12" t="s">
+      <c r="A55" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="26" t="s">
         <v>83</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -1829,8 +1832,8 @@
       <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="12"/>
-      <c r="B56" s="11"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="7" t="s">
         <v>9</v>
       </c>
@@ -1842,8 +1845,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="12"/>
-      <c r="B57" s="11"/>
+      <c r="A57" s="25"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="7" t="s">
         <v>12</v>
       </c>
@@ -1855,8 +1858,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="12"/>
-      <c r="B58" s="11"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="7" t="s">
         <v>14</v>
       </c>
@@ -1868,8 +1871,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
-      <c r="B59" s="11"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="7" t="s">
         <v>84</v>
       </c>
@@ -1879,8 +1882,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
-      <c r="B60" s="11"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="7" t="s">
         <v>60</v>
       </c>
@@ -1890,8 +1893,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
-      <c r="B61" s="11"/>
+      <c r="A61" s="25"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="7" t="s">
         <v>22</v>
       </c>
@@ -1901,8 +1904,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
-      <c r="B62" s="11"/>
+      <c r="A62" s="25"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="7" t="s">
         <v>24</v>
       </c>
@@ -1912,8 +1915,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="25"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="7" t="s">
         <v>87</v>
       </c>
@@ -1923,8 +1926,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
-      <c r="B64" s="11"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="7" t="s">
         <v>89</v>
       </c>
@@ -1934,8 +1937,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="11"/>
+      <c r="A65" s="25"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="7" t="s">
         <v>91</v>
       </c>
@@ -1945,8 +1948,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="11"/>
+      <c r="A66" s="25"/>
+      <c r="B66" s="26"/>
       <c r="C66" s="7" t="s">
         <v>93</v>
       </c>
@@ -1956,8 +1959,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
-      <c r="B67" s="11"/>
+      <c r="A67" s="25"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="7" t="s">
         <v>94</v>
       </c>
@@ -1967,8 +1970,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
-      <c r="B68" s="11"/>
+      <c r="A68" s="25"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="7" t="s">
         <v>38</v>
       </c>
@@ -1978,10 +1981,10 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="12" t="s">
+      <c r="A69" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="25" t="s">
         <v>97</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -1991,8 +1994,8 @@
       <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
       <c r="C70" s="7" t="s">
         <v>9</v>
       </c>
@@ -2004,8 +2007,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
       <c r="C71" s="7" t="s">
         <v>12</v>
       </c>
@@ -2017,8 +2020,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
       <c r="C72" s="7" t="s">
         <v>14</v>
       </c>
@@ -2030,8 +2033,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
       <c r="C73" s="7" t="s">
         <v>22</v>
       </c>
@@ -2041,8 +2044,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
       <c r="C74" s="7" t="s">
         <v>24</v>
       </c>
@@ -2052,8 +2055,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
       <c r="C75" s="7" t="s">
         <v>84</v>
       </c>
@@ -2063,8 +2066,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
       <c r="C76" s="7" t="s">
         <v>60</v>
       </c>
@@ -2074,8 +2077,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
       <c r="C77" s="7" t="s">
         <v>100</v>
       </c>
@@ -2085,8 +2088,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
       <c r="C78" s="7" t="s">
         <v>38</v>
       </c>
@@ -2096,10 +2099,10 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="25" t="s">
         <v>103</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -2111,8 +2114,8 @@
       <c r="E79" s="10"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
       <c r="C80" s="7" t="s">
         <v>9</v>
       </c>
@@ -2124,8 +2127,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
       <c r="C81" s="7" t="s">
         <v>12</v>
       </c>
@@ -2137,8 +2140,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
       <c r="C82" s="7" t="s">
         <v>14</v>
       </c>
@@ -2150,8 +2153,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
       <c r="C83" s="7" t="s">
         <v>22</v>
       </c>
@@ -2161,8 +2164,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
       <c r="C84" s="7" t="s">
         <v>24</v>
       </c>
@@ -2172,8 +2175,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
       <c r="C85" s="7" t="s">
         <v>26</v>
       </c>
@@ -2183,8 +2186,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
       <c r="C86" s="7" t="s">
         <v>93</v>
       </c>
@@ -2194,8 +2197,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
       <c r="C87" s="7" t="s">
         <v>49</v>
       </c>
@@ -2205,8 +2208,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
       <c r="C88" s="7" t="s">
         <v>38</v>
       </c>
@@ -2216,10 +2219,10 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="25" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="27" t="s">
         <v>106</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -2229,8 +2232,8 @@
       <c r="E89" s="10"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="12"/>
-      <c r="B90" s="13"/>
+      <c r="A90" s="25"/>
+      <c r="B90" s="27"/>
       <c r="C90" s="7" t="s">
         <v>9</v>
       </c>
@@ -2242,8 +2245,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="12"/>
-      <c r="B91" s="13"/>
+      <c r="A91" s="25"/>
+      <c r="B91" s="27"/>
       <c r="C91" s="7" t="s">
         <v>12</v>
       </c>
@@ -2255,8 +2258,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="12"/>
-      <c r="B92" s="13"/>
+      <c r="A92" s="25"/>
+      <c r="B92" s="27"/>
       <c r="C92" s="7" t="s">
         <v>14</v>
       </c>
@@ -2268,8 +2271,8 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="12"/>
-      <c r="B93" s="13"/>
+      <c r="A93" s="25"/>
+      <c r="B93" s="27"/>
       <c r="C93" s="7" t="s">
         <v>22</v>
       </c>
@@ -2279,8 +2282,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="12"/>
-      <c r="B94" s="13"/>
+      <c r="A94" s="25"/>
+      <c r="B94" s="27"/>
       <c r="C94" s="7" t="s">
         <v>24</v>
       </c>
@@ -2290,8 +2293,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="12"/>
-      <c r="B95" s="13"/>
+      <c r="A95" s="25"/>
+      <c r="B95" s="27"/>
       <c r="C95" s="7" t="s">
         <v>108</v>
       </c>
@@ -2301,8 +2304,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="12"/>
-      <c r="B96" s="13"/>
+      <c r="A96" s="25"/>
+      <c r="B96" s="27"/>
       <c r="C96" s="7" t="s">
         <v>28</v>
       </c>
@@ -2312,8 +2315,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="12"/>
-      <c r="B97" s="13"/>
+      <c r="A97" s="25"/>
+      <c r="B97" s="27"/>
       <c r="C97" s="7" t="s">
         <v>111</v>
       </c>
@@ -2325,8 +2328,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="12"/>
-      <c r="B98" s="13"/>
+      <c r="A98" s="25"/>
+      <c r="B98" s="27"/>
       <c r="C98" s="7" t="s">
         <v>113</v>
       </c>
@@ -2336,8 +2339,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="12"/>
-      <c r="B99" s="13"/>
+      <c r="A99" s="25"/>
+      <c r="B99" s="27"/>
       <c r="C99" s="7" t="s">
         <v>115</v>
       </c>
@@ -2347,8 +2350,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="12"/>
-      <c r="B100" s="13"/>
+      <c r="A100" s="25"/>
+      <c r="B100" s="27"/>
       <c r="C100" s="7" t="s">
         <v>31</v>
       </c>
@@ -2358,8 +2361,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="12"/>
-      <c r="B101" s="13"/>
+      <c r="A101" s="25"/>
+      <c r="B101" s="27"/>
       <c r="C101" s="7" t="s">
         <v>118</v>
       </c>
@@ -2371,8 +2374,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="12"/>
-      <c r="B102" s="13"/>
+      <c r="A102" s="25"/>
+      <c r="B102" s="27"/>
       <c r="C102" s="7" t="s">
         <v>93</v>
       </c>
@@ -2382,8 +2385,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="12"/>
-      <c r="B103" s="13"/>
+      <c r="A103" s="25"/>
+      <c r="B103" s="27"/>
       <c r="C103" s="7" t="s">
         <v>38</v>
       </c>
@@ -2393,8 +2396,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="12"/>
-      <c r="B104" s="13"/>
+      <c r="A104" s="25"/>
+      <c r="B104" s="27"/>
       <c r="C104" s="7" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2407,8 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="12"/>
-      <c r="B105" s="13"/>
+      <c r="A105" s="25"/>
+      <c r="B105" s="27"/>
       <c r="C105" s="7" t="s">
         <v>121</v>
       </c>
@@ -2415,10 +2418,10 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="12" t="s">
+      <c r="A106" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="25" t="s">
         <v>124</v>
       </c>
       <c r="C106" s="5" t="s">
@@ -2428,8 +2431,8 @@
       <c r="E106" s="10"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
       <c r="C107" s="7" t="s">
         <v>9</v>
       </c>
@@ -2439,8 +2442,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
       <c r="C108" s="7" t="s">
         <v>12</v>
       </c>
@@ -2450,8 +2453,8 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
       <c r="C109" s="7" t="s">
         <v>14</v>
       </c>
@@ -2461,8 +2464,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
       <c r="C110" s="7" t="s">
         <v>22</v>
       </c>
@@ -2472,8 +2475,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
       <c r="C111" s="7" t="s">
         <v>24</v>
       </c>
@@ -2483,8 +2486,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
       <c r="C112" s="7" t="s">
         <v>125</v>
       </c>
@@ -2494,8 +2497,8 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
+      <c r="A113" s="25"/>
+      <c r="B113" s="25"/>
       <c r="C113" s="7" t="s">
         <v>93</v>
       </c>
@@ -2505,8 +2508,8 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
+      <c r="A114" s="25"/>
+      <c r="B114" s="25"/>
       <c r="C114" s="7" t="s">
         <v>127</v>
       </c>
@@ -2516,8 +2519,8 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
+      <c r="A115" s="25"/>
+      <c r="B115" s="25"/>
       <c r="C115" s="7" t="s">
         <v>38</v>
       </c>
@@ -2527,10 +2530,10 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="25" t="s">
         <v>130</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -2540,8 +2543,8 @@
       <c r="E116" s="10"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
+      <c r="A117" s="25"/>
+      <c r="B117" s="25"/>
       <c r="C117" s="7" t="s">
         <v>9</v>
       </c>
@@ -2553,8 +2556,8 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
       <c r="C118" s="7" t="s">
         <v>12</v>
       </c>
@@ -2566,8 +2569,8 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
+      <c r="A119" s="25"/>
+      <c r="B119" s="25"/>
       <c r="C119" s="7" t="s">
         <v>14</v>
       </c>
@@ -2579,8 +2582,8 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
       <c r="C120" s="7" t="s">
         <v>22</v>
       </c>
@@ -2590,8 +2593,8 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
+      <c r="A121" s="25"/>
+      <c r="B121" s="25"/>
       <c r="C121" s="7" t="s">
         <v>24</v>
       </c>
@@ -2601,8 +2604,8 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
+      <c r="A122" s="25"/>
+      <c r="B122" s="25"/>
       <c r="C122" s="7" t="s">
         <v>113</v>
       </c>
@@ -2612,8 +2615,8 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
+      <c r="A123" s="25"/>
+      <c r="B123" s="25"/>
       <c r="C123" s="7" t="s">
         <v>132</v>
       </c>
@@ -2623,8 +2626,8 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
       <c r="C124" s="7" t="s">
         <v>134</v>
       </c>
@@ -2634,8 +2637,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
+      <c r="A125" s="25"/>
+      <c r="B125" s="25"/>
       <c r="C125" s="7" t="s">
         <v>136</v>
       </c>
@@ -2645,8 +2648,8 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
       <c r="C126" s="7" t="s">
         <v>26</v>
       </c>
@@ -2656,8 +2659,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="12"/>
-      <c r="B127" s="12"/>
+      <c r="A127" s="25"/>
+      <c r="B127" s="25"/>
       <c r="C127" s="7" t="s">
         <v>93</v>
       </c>
@@ -2667,8 +2670,8 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
       <c r="C128" s="7" t="s">
         <v>108</v>
       </c>
@@ -2678,8 +2681,8 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12"/>
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
       <c r="C129" s="7" t="s">
         <v>127</v>
       </c>
@@ -2689,8 +2692,8 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
       <c r="C130" s="7" t="s">
         <v>38</v>
       </c>
@@ -2700,10 +2703,10 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="15" t="s">
+      <c r="A131" s="19" t="s">
         <v>138</v>
       </c>
-      <c r="B131" s="15" t="s">
+      <c r="B131" s="19" t="s">
         <v>139</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -2713,8 +2716,8 @@
       <c r="E131" s="10"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="16"/>
-      <c r="B132" s="16"/>
+      <c r="A132" s="20"/>
+      <c r="B132" s="20"/>
       <c r="C132" s="7" t="s">
         <v>9</v>
       </c>
@@ -2726,8 +2729,8 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="16"/>
-      <c r="B133" s="16"/>
+      <c r="A133" s="20"/>
+      <c r="B133" s="20"/>
       <c r="C133" s="7" t="s">
         <v>12</v>
       </c>
@@ -2739,8 +2742,8 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="16"/>
-      <c r="B134" s="16"/>
+      <c r="A134" s="20"/>
+      <c r="B134" s="20"/>
       <c r="C134" s="7" t="s">
         <v>14</v>
       </c>
@@ -2752,8 +2755,8 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="16"/>
-      <c r="B135" s="16"/>
+      <c r="A135" s="20"/>
+      <c r="B135" s="20"/>
       <c r="C135" s="7" t="s">
         <v>22</v>
       </c>
@@ -2763,8 +2766,8 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="16"/>
-      <c r="B136" s="16"/>
+      <c r="A136" s="20"/>
+      <c r="B136" s="20"/>
       <c r="C136" s="7" t="s">
         <v>24</v>
       </c>
@@ -2774,8 +2777,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="16"/>
-      <c r="B137" s="16"/>
+      <c r="A137" s="20"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="7" t="s">
         <v>100</v>
       </c>
@@ -2785,8 +2788,8 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="16"/>
-      <c r="B138" s="16"/>
+      <c r="A138" s="20"/>
+      <c r="B138" s="20"/>
       <c r="C138" s="7" t="s">
         <v>26</v>
       </c>
@@ -2798,8 +2801,8 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="17"/>
-      <c r="B139" s="17"/>
+      <c r="A139" s="21"/>
+      <c r="B139" s="21"/>
       <c r="C139" s="7" t="s">
         <v>38</v>
       </c>
@@ -2809,10 +2812,10 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="26" t="s">
+      <c r="A140" s="22" t="s">
         <v>141</v>
       </c>
-      <c r="B140" s="15" t="s">
+      <c r="B140" s="19" t="s">
         <v>142</v>
       </c>
       <c r="C140" s="5" t="s">
@@ -2822,8 +2825,8 @@
       <c r="E140" s="10"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="27"/>
-      <c r="B141" s="16"/>
+      <c r="A141" s="23"/>
+      <c r="B141" s="20"/>
       <c r="C141" s="7" t="s">
         <v>9</v>
       </c>
@@ -2835,8 +2838,8 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="27"/>
-      <c r="B142" s="16"/>
+      <c r="A142" s="23"/>
+      <c r="B142" s="20"/>
       <c r="C142" s="7" t="s">
         <v>12</v>
       </c>
@@ -2848,8 +2851,8 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="27"/>
-      <c r="B143" s="16"/>
+      <c r="A143" s="23"/>
+      <c r="B143" s="20"/>
       <c r="C143" s="7" t="s">
         <v>14</v>
       </c>
@@ -2861,8 +2864,8 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="27"/>
-      <c r="B144" s="16"/>
+      <c r="A144" s="23"/>
+      <c r="B144" s="20"/>
       <c r="C144" s="7" t="s">
         <v>22</v>
       </c>
@@ -2872,8 +2875,8 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="27"/>
-      <c r="B145" s="16"/>
+      <c r="A145" s="23"/>
+      <c r="B145" s="20"/>
       <c r="C145" s="7" t="s">
         <v>24</v>
       </c>
@@ -2883,8 +2886,8 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="27"/>
-      <c r="B146" s="16"/>
+      <c r="A146" s="23"/>
+      <c r="B146" s="20"/>
       <c r="C146" s="7" t="s">
         <v>26</v>
       </c>
@@ -2894,8 +2897,8 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="27"/>
-      <c r="B147" s="16"/>
+      <c r="A147" s="23"/>
+      <c r="B147" s="20"/>
       <c r="C147" s="7" t="s">
         <v>84</v>
       </c>
@@ -2905,8 +2908,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="28"/>
-      <c r="B148" s="17"/>
+      <c r="A148" s="23"/>
+      <c r="B148" s="20"/>
       <c r="C148" s="7" t="s">
         <v>38</v>
       </c>
@@ -2916,258 +2919,258 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="18" t="s">
+      <c r="A149" s="24"/>
+      <c r="B149" s="21"/>
+      <c r="C149" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="D149" s="28"/>
+      <c r="E149" s="29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="B149" s="18" t="s">
+      <c r="B150" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="D149" s="19"/>
-      <c r="E149" s="20" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="18"/>
-      <c r="B150" s="18"/>
-      <c r="C150" s="21" t="s">
+      <c r="C150" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D150" s="21"/>
-      <c r="E150" s="22"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="15"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="18"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="19" t="s">
+      <c r="A151" s="17"/>
+      <c r="B151" s="17"/>
+      <c r="C151" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D151" s="19"/>
-      <c r="E151" s="20" t="s">
+      <c r="D151" s="12"/>
+      <c r="E151" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="18"/>
-      <c r="B152" s="18"/>
-      <c r="C152" s="19" t="s">
+      <c r="A152" s="17"/>
+      <c r="B152" s="17"/>
+      <c r="C152" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D152" s="19"/>
-      <c r="E152" s="20" t="s">
+      <c r="D152" s="12"/>
+      <c r="E152" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="18"/>
-      <c r="B153" s="18"/>
-      <c r="C153" s="19" t="s">
+      <c r="A153" s="17"/>
+      <c r="B153" s="17"/>
+      <c r="C153" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D153" s="19"/>
-      <c r="E153" s="20" t="s">
+      <c r="D153" s="12"/>
+      <c r="E153" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="18"/>
-      <c r="B154" s="18"/>
-      <c r="C154" s="19" t="s">
+      <c r="A154" s="17"/>
+      <c r="B154" s="17"/>
+      <c r="C154" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D154" s="19"/>
-      <c r="E154" s="20" t="s">
+      <c r="D154" s="12"/>
+      <c r="E154" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="23" t="s">
+      <c r="A155" s="18"/>
+      <c r="B155" s="18"/>
+      <c r="C155" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D155" s="12"/>
+      <c r="E155" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="B155" s="23" t="s">
+      <c r="B156" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C155" s="19" t="s">
+      <c r="C156" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" s="14"/>
+      <c r="E156" s="15"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" s="17"/>
+      <c r="B157" s="17"/>
+      <c r="C157" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" s="12"/>
+      <c r="E157" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" s="17"/>
+      <c r="B158" s="17"/>
+      <c r="C158" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D158" s="12"/>
+      <c r="E158" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" s="17"/>
+      <c r="B159" s="17"/>
+      <c r="C159" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D159" s="12"/>
+      <c r="E159" s="13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" s="17"/>
+      <c r="B160" s="17"/>
+      <c r="C160" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D160" s="12"/>
+      <c r="E160" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A161" s="17"/>
+      <c r="B161" s="17"/>
+      <c r="C161" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D155" s="19"/>
-      <c r="E155" s="20" t="s">
+      <c r="D161" s="12"/>
+      <c r="E161" s="13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="24"/>
-      <c r="B156" s="24"/>
-      <c r="C156" s="21" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A162" s="17"/>
+      <c r="B162" s="17"/>
+      <c r="C162" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D162" s="12"/>
+      <c r="E162" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A163" s="18"/>
+      <c r="B163" s="18"/>
+      <c r="C163" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D163" s="12"/>
+      <c r="E163" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A164" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B164" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C164" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D156" s="21"/>
-      <c r="E156" s="22"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="24"/>
-      <c r="B157" s="24"/>
-      <c r="C157" s="19" t="s">
+      <c r="D164" s="14"/>
+      <c r="E164" s="15"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A165" s="17"/>
+      <c r="B165" s="17"/>
+      <c r="C165" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D157" s="19"/>
-      <c r="E157" s="20" t="s">
+      <c r="D165" s="12"/>
+      <c r="E165" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="24"/>
-      <c r="B158" s="24"/>
-      <c r="C158" s="19" t="s">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A166" s="17"/>
+      <c r="B166" s="17"/>
+      <c r="C166" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D158" s="19"/>
-      <c r="E158" s="20" t="s">
+      <c r="D166" s="12"/>
+      <c r="E166" s="13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="24"/>
-      <c r="B159" s="24"/>
-      <c r="C159" s="19" t="s">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A167" s="17"/>
+      <c r="B167" s="17"/>
+      <c r="C167" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="D159" s="19"/>
-      <c r="E159" s="20" t="s">
+      <c r="D167" s="12"/>
+      <c r="E167" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="24"/>
-      <c r="B160" s="24"/>
-      <c r="C160" s="19" t="s">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A168" s="17"/>
+      <c r="B168" s="17"/>
+      <c r="C168" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D160" s="19"/>
-      <c r="E160" s="20" t="s">
+      <c r="D168" s="12"/>
+      <c r="E168" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="24"/>
-      <c r="B161" s="24"/>
-      <c r="C161" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="D161" s="19"/>
-      <c r="E161" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="24"/>
-      <c r="B162" s="24"/>
-      <c r="C162" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D162" s="19"/>
-      <c r="E162" s="20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="25"/>
-      <c r="B163" s="25"/>
-      <c r="C163" s="19" t="s">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A169" s="17"/>
+      <c r="B169" s="17"/>
+      <c r="C169" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D169" s="12"/>
+      <c r="E169" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A170" s="18"/>
+      <c r="B170" s="18"/>
+      <c r="C170" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D163" s="19"/>
-      <c r="E163" s="20" t="s">
+      <c r="D170" s="12"/>
+      <c r="E170" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="23" t="s">
-        <v>151</v>
-      </c>
-      <c r="B164" s="23" t="s">
-        <v>152</v>
-      </c>
-      <c r="C164" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D164" s="21"/>
-      <c r="E164" s="22"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="24"/>
-      <c r="B165" s="24"/>
-      <c r="C165" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="19"/>
-      <c r="E165" s="20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="24"/>
-      <c r="B166" s="24"/>
-      <c r="C166" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D166" s="19"/>
-      <c r="E166" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="24"/>
-      <c r="B167" s="24"/>
-      <c r="C167" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D167" s="19"/>
-      <c r="E167" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="24"/>
-      <c r="B168" s="24"/>
-      <c r="C168" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="D168" s="19"/>
-      <c r="E168" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="24"/>
-      <c r="B169" s="24"/>
-      <c r="C169" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="D169" s="19"/>
-      <c r="E169" s="20" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="25"/>
-      <c r="B170" s="25"/>
-      <c r="C170" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D170" s="7"/>
-      <c r="E170" s="8" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="15" t="s">
+      <c r="A171" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="B171" s="19" t="s">
         <v>156</v>
       </c>
       <c r="C171" s="5" t="s">
@@ -3177,8 +3180,8 @@
       <c r="E171" s="10"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="16"/>
-      <c r="B172" s="16"/>
+      <c r="A172" s="20"/>
+      <c r="B172" s="20"/>
       <c r="C172" s="7" t="s">
         <v>9</v>
       </c>
@@ -3188,8 +3191,8 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="16"/>
-      <c r="B173" s="16"/>
+      <c r="A173" s="20"/>
+      <c r="B173" s="20"/>
       <c r="C173" s="7" t="s">
         <v>12</v>
       </c>
@@ -3199,8 +3202,8 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="16"/>
-      <c r="B174" s="16"/>
+      <c r="A174" s="20"/>
+      <c r="B174" s="20"/>
       <c r="C174" s="7" t="s">
         <v>14</v>
       </c>
@@ -3210,8 +3213,8 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="16"/>
-      <c r="B175" s="16"/>
+      <c r="A175" s="20"/>
+      <c r="B175" s="20"/>
       <c r="C175" s="7" t="s">
         <v>22</v>
       </c>
@@ -3221,8 +3224,8 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="16"/>
-      <c r="B176" s="16"/>
+      <c r="A176" s="20"/>
+      <c r="B176" s="20"/>
       <c r="C176" s="7" t="s">
         <v>157</v>
       </c>
@@ -3232,8 +3235,8 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="16"/>
-      <c r="B177" s="16"/>
+      <c r="A177" s="20"/>
+      <c r="B177" s="20"/>
       <c r="C177" s="7" t="s">
         <v>159</v>
       </c>
@@ -3243,8 +3246,8 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="16"/>
-      <c r="B178" s="16"/>
+      <c r="A178" s="20"/>
+      <c r="B178" s="20"/>
       <c r="C178" s="7" t="s">
         <v>49</v>
       </c>
@@ -3254,8 +3257,8 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="16"/>
-      <c r="B179" s="16"/>
+      <c r="A179" s="20"/>
+      <c r="B179" s="20"/>
       <c r="C179" s="7" t="s">
         <v>38</v>
       </c>
@@ -3265,8 +3268,8 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="17"/>
-      <c r="B180" s="17"/>
+      <c r="A180" s="21"/>
+      <c r="B180" s="21"/>
       <c r="C180" s="7" t="s">
         <v>38</v>
       </c>
@@ -3276,10 +3279,10 @@
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="12" t="s">
+      <c r="A181" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="B181" s="12" t="s">
+      <c r="B181" s="25" t="s">
         <v>162</v>
       </c>
       <c r="C181" s="5" t="s">
@@ -3289,8 +3292,8 @@
       <c r="E181" s="10"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="12"/>
-      <c r="B182" s="12"/>
+      <c r="A182" s="25"/>
+      <c r="B182" s="25"/>
       <c r="C182" s="7" t="s">
         <v>9</v>
       </c>
@@ -3302,8 +3305,8 @@
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="12"/>
-      <c r="B183" s="12"/>
+      <c r="A183" s="25"/>
+      <c r="B183" s="25"/>
       <c r="C183" s="7" t="s">
         <v>12</v>
       </c>
@@ -3315,8 +3318,8 @@
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="12"/>
-      <c r="B184" s="12"/>
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
       <c r="C184" s="7" t="s">
         <v>14</v>
       </c>
@@ -3328,8 +3331,8 @@
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="12"/>
-      <c r="B185" s="12"/>
+      <c r="A185" s="25"/>
+      <c r="B185" s="25"/>
       <c r="C185" s="7" t="s">
         <v>22</v>
       </c>
@@ -3339,8 +3342,8 @@
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="12"/>
-      <c r="B186" s="12"/>
+      <c r="A186" s="25"/>
+      <c r="B186" s="25"/>
       <c r="C186" s="7" t="s">
         <v>24</v>
       </c>
@@ -3350,8 +3353,8 @@
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="12"/>
-      <c r="B187" s="12"/>
+      <c r="A187" s="25"/>
+      <c r="B187" s="25"/>
       <c r="C187" s="7" t="s">
         <v>125</v>
       </c>
@@ -3361,8 +3364,8 @@
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="12"/>
-      <c r="B188" s="12"/>
+      <c r="A188" s="25"/>
+      <c r="B188" s="25"/>
       <c r="C188" s="7" t="s">
         <v>93</v>
       </c>
@@ -3372,8 +3375,8 @@
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="12"/>
-      <c r="B189" s="12"/>
+      <c r="A189" s="25"/>
+      <c r="B189" s="25"/>
       <c r="C189" s="7" t="s">
         <v>165</v>
       </c>
@@ -3383,8 +3386,8 @@
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="12"/>
-      <c r="B190" s="12"/>
+      <c r="A190" s="25"/>
+      <c r="B190" s="25"/>
       <c r="C190" s="7" t="s">
         <v>84</v>
       </c>
@@ -3394,8 +3397,8 @@
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="12"/>
-      <c r="B191" s="12"/>
+      <c r="A191" s="25"/>
+      <c r="B191" s="25"/>
       <c r="C191" s="7" t="s">
         <v>38</v>
       </c>
@@ -3405,10 +3408,10 @@
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="12" t="s">
+      <c r="A192" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="B192" s="12" t="s">
+      <c r="B192" s="25" t="s">
         <v>169</v>
       </c>
       <c r="C192" s="5" t="s">
@@ -3418,8 +3421,8 @@
       <c r="E192" s="10"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="12"/>
-      <c r="B193" s="12"/>
+      <c r="A193" s="25"/>
+      <c r="B193" s="25"/>
       <c r="C193" s="7" t="s">
         <v>9</v>
       </c>
@@ -3431,8 +3434,8 @@
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="12"/>
-      <c r="B194" s="12"/>
+      <c r="A194" s="25"/>
+      <c r="B194" s="25"/>
       <c r="C194" s="7" t="s">
         <v>12</v>
       </c>
@@ -3444,8 +3447,8 @@
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="12"/>
-      <c r="B195" s="12"/>
+      <c r="A195" s="25"/>
+      <c r="B195" s="25"/>
       <c r="C195" s="7" t="s">
         <v>14</v>
       </c>
@@ -3457,8 +3460,8 @@
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="12"/>
-      <c r="B196" s="12"/>
+      <c r="A196" s="25"/>
+      <c r="B196" s="25"/>
       <c r="C196" s="7" t="s">
         <v>22</v>
       </c>
@@ -3468,8 +3471,8 @@
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="12"/>
-      <c r="B197" s="12"/>
+      <c r="A197" s="25"/>
+      <c r="B197" s="25"/>
       <c r="C197" s="7" t="s">
         <v>24</v>
       </c>
@@ -3479,8 +3482,8 @@
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="12"/>
-      <c r="B198" s="12"/>
+      <c r="A198" s="25"/>
+      <c r="B198" s="25"/>
       <c r="C198" s="7" t="s">
         <v>26</v>
       </c>
@@ -3490,8 +3493,8 @@
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="12"/>
-      <c r="B199" s="12"/>
+      <c r="A199" s="25"/>
+      <c r="B199" s="25"/>
       <c r="C199" s="7" t="s">
         <v>113</v>
       </c>
@@ -3501,8 +3504,8 @@
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="12"/>
-      <c r="B200" s="12"/>
+      <c r="A200" s="25"/>
+      <c r="B200" s="25"/>
       <c r="C200" s="7" t="s">
         <v>38</v>
       </c>
@@ -3512,10 +3515,10 @@
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="12" t="s">
+      <c r="A201" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="B201" s="12" t="s">
+      <c r="B201" s="25" t="s">
         <v>172</v>
       </c>
       <c r="C201" s="5" t="s">
@@ -3527,8 +3530,8 @@
       <c r="E201" s="6"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="12"/>
-      <c r="B202" s="12"/>
+      <c r="A202" s="25"/>
+      <c r="B202" s="25"/>
       <c r="C202" s="7" t="s">
         <v>9</v>
       </c>
@@ -3540,8 +3543,8 @@
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="12"/>
-      <c r="B203" s="12"/>
+      <c r="A203" s="25"/>
+      <c r="B203" s="25"/>
       <c r="C203" s="7" t="s">
         <v>12</v>
       </c>
@@ -3553,8 +3556,8 @@
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="12"/>
-      <c r="B204" s="12"/>
+      <c r="A204" s="25"/>
+      <c r="B204" s="25"/>
       <c r="C204" s="7" t="s">
         <v>14</v>
       </c>
@@ -3566,8 +3569,8 @@
       </c>
     </row>
     <row r="205" spans="1:5" ht="171" x14ac:dyDescent="0.2">
-      <c r="A205" s="12"/>
-      <c r="B205" s="12"/>
+      <c r="A205" s="25"/>
+      <c r="B205" s="25"/>
       <c r="C205" s="7" t="s">
         <v>16</v>
       </c>
@@ -3579,8 +3582,8 @@
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="12"/>
-      <c r="B206" s="12"/>
+      <c r="A206" s="25"/>
+      <c r="B206" s="25"/>
       <c r="C206" s="7" t="s">
         <v>22</v>
       </c>
@@ -3592,8 +3595,8 @@
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="12"/>
-      <c r="B207" s="12"/>
+      <c r="A207" s="25"/>
+      <c r="B207" s="25"/>
       <c r="C207" s="7" t="s">
         <v>24</v>
       </c>
@@ -3605,8 +3608,8 @@
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="12"/>
-      <c r="B208" s="12"/>
+      <c r="A208" s="25"/>
+      <c r="B208" s="25"/>
       <c r="C208" s="7" t="s">
         <v>26</v>
       </c>
@@ -3618,8 +3621,8 @@
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="12"/>
-      <c r="B209" s="12"/>
+      <c r="A209" s="25"/>
+      <c r="B209" s="25"/>
       <c r="C209" s="7" t="s">
         <v>132</v>
       </c>
@@ -3629,8 +3632,8 @@
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="12"/>
-      <c r="B210" s="12"/>
+      <c r="A210" s="25"/>
+      <c r="B210" s="25"/>
       <c r="C210" s="7" t="s">
         <v>134</v>
       </c>
@@ -3640,8 +3643,8 @@
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="12"/>
-      <c r="B211" s="12"/>
+      <c r="A211" s="25"/>
+      <c r="B211" s="25"/>
       <c r="C211" s="7" t="s">
         <v>31</v>
       </c>
@@ -3653,8 +3656,8 @@
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="12"/>
-      <c r="B212" s="12"/>
+      <c r="A212" s="25"/>
+      <c r="B212" s="25"/>
       <c r="C212" s="7" t="s">
         <v>19</v>
       </c>
@@ -3666,8 +3669,8 @@
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="12"/>
-      <c r="B213" s="12"/>
+      <c r="A213" s="25"/>
+      <c r="B213" s="25"/>
       <c r="C213" s="7" t="s">
         <v>177</v>
       </c>
@@ -3677,8 +3680,8 @@
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="12"/>
-      <c r="B214" s="12"/>
+      <c r="A214" s="25"/>
+      <c r="B214" s="25"/>
       <c r="C214" s="7" t="s">
         <v>179</v>
       </c>
@@ -3688,8 +3691,8 @@
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="12"/>
-      <c r="B215" s="12"/>
+      <c r="A215" s="25"/>
+      <c r="B215" s="25"/>
       <c r="C215" s="7" t="s">
         <v>38</v>
       </c>
@@ -3701,10 +3704,10 @@
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="12" t="s">
+      <c r="A216" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="B216" s="11" t="s">
+      <c r="B216" s="26" t="s">
         <v>182</v>
       </c>
       <c r="C216" s="5" t="s">
@@ -3714,8 +3717,8 @@
       <c r="E216" s="10"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="12"/>
-      <c r="B217" s="11"/>
+      <c r="A217" s="25"/>
+      <c r="B217" s="26"/>
       <c r="C217" s="7" t="s">
         <v>9</v>
       </c>
@@ -3727,8 +3730,8 @@
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="12"/>
-      <c r="B218" s="11"/>
+      <c r="A218" s="25"/>
+      <c r="B218" s="26"/>
       <c r="C218" s="7" t="s">
         <v>12</v>
       </c>
@@ -3740,8 +3743,8 @@
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="12"/>
-      <c r="B219" s="11"/>
+      <c r="A219" s="25"/>
+      <c r="B219" s="26"/>
       <c r="C219" s="7" t="s">
         <v>14</v>
       </c>
@@ -3753,8 +3756,8 @@
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="12"/>
-      <c r="B220" s="11"/>
+      <c r="A220" s="25"/>
+      <c r="B220" s="26"/>
       <c r="C220" s="7" t="s">
         <v>22</v>
       </c>
@@ -3764,8 +3767,8 @@
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="12"/>
-      <c r="B221" s="11"/>
+      <c r="A221" s="25"/>
+      <c r="B221" s="26"/>
       <c r="C221" s="7" t="s">
         <v>24</v>
       </c>
@@ -3775,8 +3778,8 @@
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="12"/>
-      <c r="B222" s="11"/>
+      <c r="A222" s="25"/>
+      <c r="B222" s="26"/>
       <c r="C222" s="7" t="s">
         <v>183</v>
       </c>
@@ -3786,8 +3789,8 @@
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="12"/>
-      <c r="B223" s="11"/>
+      <c r="A223" s="25"/>
+      <c r="B223" s="26"/>
       <c r="C223" s="7" t="s">
         <v>28</v>
       </c>
@@ -3797,8 +3800,8 @@
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="12"/>
-      <c r="B224" s="11"/>
+      <c r="A224" s="25"/>
+      <c r="B224" s="26"/>
       <c r="C224" s="7" t="s">
         <v>111</v>
       </c>
@@ -3808,8 +3811,8 @@
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="12"/>
-      <c r="B225" s="11"/>
+      <c r="A225" s="25"/>
+      <c r="B225" s="26"/>
       <c r="C225" s="7" t="s">
         <v>113</v>
       </c>
@@ -3819,8 +3822,8 @@
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="12"/>
-      <c r="B226" s="11"/>
+      <c r="A226" s="25"/>
+      <c r="B226" s="26"/>
       <c r="C226" s="7" t="s">
         <v>115</v>
       </c>
@@ -3830,8 +3833,8 @@
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="12"/>
-      <c r="B227" s="11"/>
+      <c r="A227" s="25"/>
+      <c r="B227" s="26"/>
       <c r="C227" s="7" t="s">
         <v>31</v>
       </c>
@@ -3841,8 +3844,8 @@
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="12"/>
-      <c r="B228" s="11"/>
+      <c r="A228" s="25"/>
+      <c r="B228" s="26"/>
       <c r="C228" s="7" t="s">
         <v>118</v>
       </c>
@@ -3852,8 +3855,8 @@
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="12"/>
-      <c r="B229" s="11"/>
+      <c r="A229" s="25"/>
+      <c r="B229" s="26"/>
       <c r="C229" s="7" t="s">
         <v>93</v>
       </c>
@@ -3863,8 +3866,8 @@
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="12"/>
-      <c r="B230" s="11"/>
+      <c r="A230" s="25"/>
+      <c r="B230" s="26"/>
       <c r="C230" s="7" t="s">
         <v>38</v>
       </c>
@@ -3874,8 +3877,8 @@
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="12"/>
-      <c r="B231" s="11"/>
+      <c r="A231" s="25"/>
+      <c r="B231" s="26"/>
       <c r="C231" s="7" t="s">
         <v>26</v>
       </c>
@@ -3885,10 +3888,10 @@
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" s="12" t="s">
+      <c r="A232" s="25" t="s">
         <v>188</v>
       </c>
-      <c r="B232" s="12" t="s">
+      <c r="B232" s="25" t="s">
         <v>189</v>
       </c>
       <c r="C232" s="5" t="s">
@@ -3898,8 +3901,8 @@
       <c r="E232" s="10"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="12"/>
-      <c r="B233" s="12"/>
+      <c r="A233" s="25"/>
+      <c r="B233" s="25"/>
       <c r="C233" s="7" t="s">
         <v>9</v>
       </c>
@@ -3911,8 +3914,8 @@
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="12"/>
-      <c r="B234" s="12"/>
+      <c r="A234" s="25"/>
+      <c r="B234" s="25"/>
       <c r="C234" s="7" t="s">
         <v>12</v>
       </c>
@@ -3924,8 +3927,8 @@
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="12"/>
-      <c r="B235" s="12"/>
+      <c r="A235" s="25"/>
+      <c r="B235" s="25"/>
       <c r="C235" s="7" t="s">
         <v>14</v>
       </c>
@@ -3937,8 +3940,8 @@
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="12"/>
-      <c r="B236" s="12"/>
+      <c r="A236" s="25"/>
+      <c r="B236" s="25"/>
       <c r="C236" s="7" t="s">
         <v>22</v>
       </c>
@@ -3948,8 +3951,8 @@
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="12"/>
-      <c r="B237" s="12"/>
+      <c r="A237" s="25"/>
+      <c r="B237" s="25"/>
       <c r="C237" s="7" t="s">
         <v>24</v>
       </c>
@@ -3959,8 +3962,8 @@
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="12"/>
-      <c r="B238" s="12"/>
+      <c r="A238" s="25"/>
+      <c r="B238" s="25"/>
       <c r="C238" s="7" t="s">
         <v>125</v>
       </c>
@@ -3970,8 +3973,8 @@
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="12"/>
-      <c r="B239" s="12"/>
+      <c r="A239" s="25"/>
+      <c r="B239" s="25"/>
       <c r="C239" s="7" t="s">
         <v>93</v>
       </c>
@@ -3981,8 +3984,8 @@
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="12"/>
-      <c r="B240" s="12"/>
+      <c r="A240" s="25"/>
+      <c r="B240" s="25"/>
       <c r="C240" s="7" t="s">
         <v>191</v>
       </c>
@@ -3992,8 +3995,8 @@
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="12"/>
-      <c r="B241" s="12"/>
+      <c r="A241" s="25"/>
+      <c r="B241" s="25"/>
       <c r="C241" s="7" t="s">
         <v>38</v>
       </c>
@@ -4003,10 +4006,10 @@
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="12" t="s">
+      <c r="A242" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="B242" s="12" t="s">
+      <c r="B242" s="25" t="s">
         <v>194</v>
       </c>
       <c r="C242" s="5" t="s">
@@ -4016,8 +4019,8 @@
       <c r="E242" s="10"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="12"/>
-      <c r="B243" s="12"/>
+      <c r="A243" s="25"/>
+      <c r="B243" s="25"/>
       <c r="C243" s="7" t="s">
         <v>9</v>
       </c>
@@ -4029,8 +4032,8 @@
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="12"/>
-      <c r="B244" s="12"/>
+      <c r="A244" s="25"/>
+      <c r="B244" s="25"/>
       <c r="C244" s="7" t="s">
         <v>12</v>
       </c>
@@ -4042,8 +4045,8 @@
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="12"/>
-      <c r="B245" s="12"/>
+      <c r="A245" s="25"/>
+      <c r="B245" s="25"/>
       <c r="C245" s="7" t="s">
         <v>14</v>
       </c>
@@ -4055,8 +4058,8 @@
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="12"/>
-      <c r="B246" s="12"/>
+      <c r="A246" s="25"/>
+      <c r="B246" s="25"/>
       <c r="C246" s="7" t="s">
         <v>22</v>
       </c>
@@ -4066,8 +4069,8 @@
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="12"/>
-      <c r="B247" s="12"/>
+      <c r="A247" s="25"/>
+      <c r="B247" s="25"/>
       <c r="C247" s="7" t="s">
         <v>24</v>
       </c>
@@ -4077,8 +4080,8 @@
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="12"/>
-      <c r="B248" s="12"/>
+      <c r="A248" s="25"/>
+      <c r="B248" s="25"/>
       <c r="C248" s="7" t="s">
         <v>113</v>
       </c>
@@ -4088,8 +4091,8 @@
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="12"/>
-      <c r="B249" s="12"/>
+      <c r="A249" s="25"/>
+      <c r="B249" s="25"/>
       <c r="C249" s="7" t="s">
         <v>26</v>
       </c>
@@ -4099,8 +4102,8 @@
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="12"/>
-      <c r="B250" s="12"/>
+      <c r="A250" s="25"/>
+      <c r="B250" s="25"/>
       <c r="C250" s="7" t="s">
         <v>93</v>
       </c>
@@ -4110,8 +4113,8 @@
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="12"/>
-      <c r="B251" s="12"/>
+      <c r="A251" s="25"/>
+      <c r="B251" s="25"/>
       <c r="C251" s="7" t="s">
         <v>183</v>
       </c>
@@ -4121,8 +4124,8 @@
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="12"/>
-      <c r="B252" s="12"/>
+      <c r="A252" s="25"/>
+      <c r="B252" s="25"/>
       <c r="C252" s="7" t="s">
         <v>191</v>
       </c>
@@ -4132,8 +4135,8 @@
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="12"/>
-      <c r="B253" s="12"/>
+      <c r="A253" s="25"/>
+      <c r="B253" s="25"/>
       <c r="C253" s="7" t="s">
         <v>38</v>
       </c>
@@ -4144,32 +4147,14 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A164:A170"/>
-    <mergeCell ref="B164:B170"/>
-    <mergeCell ref="A171:A180"/>
-    <mergeCell ref="B171:B180"/>
-    <mergeCell ref="B131:B139"/>
-    <mergeCell ref="A140:A148"/>
-    <mergeCell ref="B140:B148"/>
-    <mergeCell ref="A155:A163"/>
-    <mergeCell ref="B155:B163"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A29"/>
-    <mergeCell ref="A30:A42"/>
-    <mergeCell ref="A43:A54"/>
-    <mergeCell ref="A55:A68"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="A79:A88"/>
-    <mergeCell ref="A89:A105"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="A116:A130"/>
-    <mergeCell ref="A149:A154"/>
-    <mergeCell ref="A131:A139"/>
-    <mergeCell ref="A181:A191"/>
-    <mergeCell ref="A192:A200"/>
-    <mergeCell ref="A201:A215"/>
-    <mergeCell ref="A216:A231"/>
-    <mergeCell ref="A232:A241"/>
+    <mergeCell ref="B192:B200"/>
+    <mergeCell ref="B201:B215"/>
+    <mergeCell ref="B156:B163"/>
+    <mergeCell ref="A156:A163"/>
+    <mergeCell ref="B140:B149"/>
+    <mergeCell ref="A140:A149"/>
+    <mergeCell ref="B150:B155"/>
+    <mergeCell ref="A150:A155"/>
     <mergeCell ref="A242:A253"/>
     <mergeCell ref="B2:B15"/>
     <mergeCell ref="B16:B29"/>
@@ -4181,13 +4166,31 @@
     <mergeCell ref="B89:B105"/>
     <mergeCell ref="B106:B115"/>
     <mergeCell ref="B116:B130"/>
-    <mergeCell ref="B149:B154"/>
     <mergeCell ref="B216:B231"/>
     <mergeCell ref="B232:B241"/>
     <mergeCell ref="B242:B253"/>
     <mergeCell ref="B181:B191"/>
-    <mergeCell ref="B192:B200"/>
-    <mergeCell ref="B201:B215"/>
+    <mergeCell ref="A181:A191"/>
+    <mergeCell ref="A192:A200"/>
+    <mergeCell ref="A201:A215"/>
+    <mergeCell ref="A216:A231"/>
+    <mergeCell ref="A232:A241"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="A89:A105"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="A116:A130"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A29"/>
+    <mergeCell ref="A30:A42"/>
+    <mergeCell ref="A43:A54"/>
+    <mergeCell ref="A55:A68"/>
+    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="B164:B170"/>
+    <mergeCell ref="A171:A180"/>
+    <mergeCell ref="B171:B180"/>
+    <mergeCell ref="B131:B139"/>
+    <mergeCell ref="A131:A139"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/数据包字段说明.xlsx
+++ b/data/数据包字段说明.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\30838\My\File\Code\Python\SES\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E161485-8EB9-4B57-9BB8-CB7E41A21DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24169432-6FFF-4079-A92E-8764D58A64C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="619" uniqueCount="198">
   <si>
     <t>表名</t>
   </si>
@@ -800,7 +800,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -827,7 +833,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -835,12 +841,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="I170" sqref="I170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1150,10 +1150,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1165,8 +1165,8 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
@@ -1178,8 +1178,8 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="7" t="s">
         <v>12</v>
       </c>
@@ -1191,8 +1191,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="7" t="s">
         <v>14</v>
       </c>
@@ -1203,9 +1203,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="171" x14ac:dyDescent="0.2">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+    <row r="6" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="7" t="s">
         <v>16</v>
       </c>
@@ -1217,8 +1217,8 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1230,8 +1230,8 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="7" t="s">
         <v>22</v>
       </c>
@@ -1243,8 +1243,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="7" t="s">
         <v>24</v>
       </c>
@@ -1256,8 +1256,8 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="7" t="s">
         <v>26</v>
       </c>
@@ -1268,9 +1268,9 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1282,8 +1282,8 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="7" t="s">
         <v>31</v>
       </c>
@@ -1295,8 +1295,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="7" t="s">
         <v>34</v>
       </c>
@@ -1308,8 +1308,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="7" t="s">
         <v>36</v>
       </c>
@@ -1319,8 +1319,8 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="7" t="s">
         <v>38</v>
       </c>
@@ -1332,10 +1332,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1347,8 +1347,8 @@
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="26"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="7" t="s">
         <v>9</v>
       </c>
@@ -1358,8 +1358,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="28"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
@@ -1369,8 +1369,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="26"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="7" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1380,8 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="7" t="s">
         <v>22</v>
       </c>
@@ -1393,8 +1393,8 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="7" t="s">
         <v>24</v>
       </c>
@@ -1406,8 +1406,8 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="7" t="s">
         <v>26</v>
       </c>
@@ -1419,8 +1419,8 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="26"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="7" t="s">
         <v>42</v>
       </c>
@@ -1432,8 +1432,8 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="26"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="7" t="s">
         <v>44</v>
       </c>
@@ -1445,8 +1445,8 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="7" t="s">
         <v>47</v>
       </c>
@@ -1458,8 +1458,8 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="26"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="7" t="s">
         <v>49</v>
       </c>
@@ -1471,8 +1471,8 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="26"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="7" t="s">
         <v>52</v>
       </c>
@@ -1484,8 +1484,8 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="26"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="7" t="s">
         <v>31</v>
       </c>
@@ -1497,8 +1497,8 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="26"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="7" t="s">
         <v>38</v>
       </c>
@@ -1510,10 +1510,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="18" t="s">
         <v>57</v>
       </c>
       <c r="C30" s="5" t="s">
@@ -1525,8 +1525,8 @@
       <c r="E30" s="10"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="7" t="s">
         <v>9</v>
       </c>
@@ -1538,8 +1538,8 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="7" t="s">
         <v>12</v>
       </c>
@@ -1551,8 +1551,8 @@
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
+      <c r="A33" s="18"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="7" t="s">
         <v>14</v>
       </c>
@@ -1564,8 +1564,8 @@
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="7" t="s">
         <v>22</v>
       </c>
@@ -1577,8 +1577,8 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="7" t="s">
         <v>60</v>
       </c>
@@ -1590,8 +1590,8 @@
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="7" t="s">
         <v>63</v>
       </c>
@@ -1603,8 +1603,8 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="7" t="s">
         <v>65</v>
       </c>
@@ -1616,8 +1616,8 @@
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="7" t="s">
         <v>24</v>
       </c>
@@ -1629,8 +1629,8 @@
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="7" t="s">
         <v>68</v>
       </c>
@@ -1642,8 +1642,8 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
       <c r="C40" s="7" t="s">
         <v>70</v>
       </c>
@@ -1655,8 +1655,8 @@
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="7" t="s">
         <v>26</v>
       </c>
@@ -1668,8 +1668,8 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="18"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="7" t="s">
         <v>38</v>
       </c>
@@ -1681,10 +1681,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B43" s="25" t="s">
+      <c r="B43" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C43" s="11" t="s">
@@ -1694,8 +1694,8 @@
       <c r="E43" s="10"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="18"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="7" t="s">
         <v>9</v>
       </c>
@@ -1707,8 +1707,8 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="7" t="s">
         <v>12</v>
       </c>
@@ -1720,8 +1720,8 @@
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
+      <c r="A46" s="18"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="7" t="s">
         <v>14</v>
       </c>
@@ -1731,8 +1731,8 @@
       <c r="E46" s="8"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
+      <c r="A47" s="18"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="7" t="s">
         <v>22</v>
       </c>
@@ -1742,8 +1742,8 @@
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
+      <c r="A48" s="18"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="7" t="s">
         <v>60</v>
       </c>
@@ -1753,8 +1753,8 @@
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
+      <c r="A49" s="18"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="7" t="s">
         <v>77</v>
       </c>
@@ -1764,8 +1764,8 @@
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
+      <c r="A50" s="18"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="7" t="s">
         <v>79</v>
       </c>
@@ -1775,8 +1775,8 @@
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
+      <c r="A51" s="18"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="7" t="s">
         <v>70</v>
       </c>
@@ -1786,8 +1786,8 @@
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
+      <c r="A52" s="18"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="7" t="s">
         <v>80</v>
       </c>
@@ -1797,8 +1797,8 @@
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
+      <c r="A53" s="18"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="7" t="s">
         <v>24</v>
       </c>
@@ -1808,8 +1808,8 @@
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="7" t="s">
         <v>38</v>
       </c>
@@ -1819,10 +1819,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="25" t="s">
+      <c r="A55" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B55" s="26" t="s">
+      <c r="B55" s="28" t="s">
         <v>83</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -1832,8 +1832,8 @@
       <c r="E55" s="10"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="28"/>
       <c r="C56" s="7" t="s">
         <v>9</v>
       </c>
@@ -1845,8 +1845,8 @@
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26"/>
+      <c r="A57" s="18"/>
+      <c r="B57" s="28"/>
       <c r="C57" s="7" t="s">
         <v>12</v>
       </c>
@@ -1858,8 +1858,8 @@
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="25"/>
-      <c r="B58" s="26"/>
+      <c r="A58" s="18"/>
+      <c r="B58" s="28"/>
       <c r="C58" s="7" t="s">
         <v>14</v>
       </c>
@@ -1871,8 +1871,8 @@
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="25"/>
-      <c r="B59" s="26"/>
+      <c r="A59" s="18"/>
+      <c r="B59" s="28"/>
       <c r="C59" s="7" t="s">
         <v>84</v>
       </c>
@@ -1882,8 +1882,8 @@
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="28"/>
       <c r="C60" s="7" t="s">
         <v>60</v>
       </c>
@@ -1893,8 +1893,8 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="25"/>
-      <c r="B61" s="26"/>
+      <c r="A61" s="18"/>
+      <c r="B61" s="28"/>
       <c r="C61" s="7" t="s">
         <v>22</v>
       </c>
@@ -1904,8 +1904,8 @@
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="25"/>
-      <c r="B62" s="26"/>
+      <c r="A62" s="18"/>
+      <c r="B62" s="28"/>
       <c r="C62" s="7" t="s">
         <v>24</v>
       </c>
@@ -1915,8 +1915,8 @@
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="25"/>
-      <c r="B63" s="26"/>
+      <c r="A63" s="18"/>
+      <c r="B63" s="28"/>
       <c r="C63" s="7" t="s">
         <v>87</v>
       </c>
@@ -1926,8 +1926,8 @@
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="25"/>
-      <c r="B64" s="26"/>
+      <c r="A64" s="18"/>
+      <c r="B64" s="28"/>
       <c r="C64" s="7" t="s">
         <v>89</v>
       </c>
@@ -1937,8 +1937,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="25"/>
-      <c r="B65" s="26"/>
+      <c r="A65" s="18"/>
+      <c r="B65" s="28"/>
       <c r="C65" s="7" t="s">
         <v>91</v>
       </c>
@@ -1948,8 +1948,8 @@
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="25"/>
-      <c r="B66" s="26"/>
+      <c r="A66" s="18"/>
+      <c r="B66" s="28"/>
       <c r="C66" s="7" t="s">
         <v>93</v>
       </c>
@@ -1959,8 +1959,8 @@
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="25"/>
-      <c r="B67" s="26"/>
+      <c r="A67" s="18"/>
+      <c r="B67" s="28"/>
       <c r="C67" s="7" t="s">
         <v>94</v>
       </c>
@@ -1970,8 +1970,8 @@
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="25"/>
-      <c r="B68" s="26"/>
+      <c r="A68" s="18"/>
+      <c r="B68" s="28"/>
       <c r="C68" s="7" t="s">
         <v>38</v>
       </c>
@@ -1981,10 +1981,10 @@
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="25" t="s">
+      <c r="A69" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B69" s="25" t="s">
+      <c r="B69" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C69" s="5" t="s">
@@ -1994,8 +1994,8 @@
       <c r="E69" s="10"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="25"/>
-      <c r="B70" s="25"/>
+      <c r="A70" s="18"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="7" t="s">
         <v>9</v>
       </c>
@@ -2007,8 +2007,8 @@
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="25"/>
-      <c r="B71" s="25"/>
+      <c r="A71" s="18"/>
+      <c r="B71" s="18"/>
       <c r="C71" s="7" t="s">
         <v>12</v>
       </c>
@@ -2020,8 +2020,8 @@
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
+      <c r="A72" s="18"/>
+      <c r="B72" s="18"/>
       <c r="C72" s="7" t="s">
         <v>14</v>
       </c>
@@ -2033,8 +2033,8 @@
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="25"/>
-      <c r="B73" s="25"/>
+      <c r="A73" s="18"/>
+      <c r="B73" s="18"/>
       <c r="C73" s="7" t="s">
         <v>22</v>
       </c>
@@ -2044,8 +2044,8 @@
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="25"/>
-      <c r="B74" s="25"/>
+      <c r="A74" s="18"/>
+      <c r="B74" s="18"/>
       <c r="C74" s="7" t="s">
         <v>24</v>
       </c>
@@ -2055,8 +2055,8 @@
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="25"/>
-      <c r="B75" s="25"/>
+      <c r="A75" s="18"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="7" t="s">
         <v>84</v>
       </c>
@@ -2066,8 +2066,8 @@
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
       <c r="C76" s="7" t="s">
         <v>60</v>
       </c>
@@ -2077,8 +2077,8 @@
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" s="25"/>
-      <c r="B77" s="25"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="7" t="s">
         <v>100</v>
       </c>
@@ -2088,8 +2088,8 @@
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" s="25"/>
-      <c r="B78" s="25"/>
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="7" t="s">
         <v>38</v>
       </c>
@@ -2099,10 +2099,10 @@
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B79" s="18" t="s">
         <v>103</v>
       </c>
       <c r="C79" s="5" t="s">
@@ -2114,8 +2114,8 @@
       <c r="E79" s="10"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
+      <c r="A80" s="18"/>
+      <c r="B80" s="18"/>
       <c r="C80" s="7" t="s">
         <v>9</v>
       </c>
@@ -2127,8 +2127,8 @@
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" s="25"/>
-      <c r="B81" s="25"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="7" t="s">
         <v>12</v>
       </c>
@@ -2140,8 +2140,8 @@
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="25"/>
-      <c r="B82" s="25"/>
+      <c r="A82" s="18"/>
+      <c r="B82" s="18"/>
       <c r="C82" s="7" t="s">
         <v>14</v>
       </c>
@@ -2153,8 +2153,8 @@
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="25"/>
-      <c r="B83" s="25"/>
+      <c r="A83" s="18"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="7" t="s">
         <v>22</v>
       </c>
@@ -2164,8 +2164,8 @@
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
+      <c r="A84" s="18"/>
+      <c r="B84" s="18"/>
       <c r="C84" s="7" t="s">
         <v>24</v>
       </c>
@@ -2175,8 +2175,8 @@
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="25"/>
-      <c r="B85" s="25"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
       <c r="C85" s="7" t="s">
         <v>26</v>
       </c>
@@ -2186,8 +2186,8 @@
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" s="25"/>
-      <c r="B86" s="25"/>
+      <c r="A86" s="18"/>
+      <c r="B86" s="18"/>
       <c r="C86" s="7" t="s">
         <v>93</v>
       </c>
@@ -2197,8 +2197,8 @@
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="25"/>
-      <c r="B87" s="25"/>
+      <c r="A87" s="18"/>
+      <c r="B87" s="18"/>
       <c r="C87" s="7" t="s">
         <v>49</v>
       </c>
@@ -2208,8 +2208,8 @@
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
+      <c r="A88" s="18"/>
+      <c r="B88" s="18"/>
       <c r="C88" s="7" t="s">
         <v>38</v>
       </c>
@@ -2219,10 +2219,10 @@
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="B89" s="27" t="s">
+      <c r="B89" s="29" t="s">
         <v>106</v>
       </c>
       <c r="C89" s="5" t="s">
@@ -2232,8 +2232,8 @@
       <c r="E89" s="10"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" s="25"/>
-      <c r="B90" s="27"/>
+      <c r="A90" s="18"/>
+      <c r="B90" s="29"/>
       <c r="C90" s="7" t="s">
         <v>9</v>
       </c>
@@ -2245,8 +2245,8 @@
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="25"/>
-      <c r="B91" s="27"/>
+      <c r="A91" s="18"/>
+      <c r="B91" s="29"/>
       <c r="C91" s="7" t="s">
         <v>12</v>
       </c>
@@ -2258,8 +2258,8 @@
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" s="25"/>
-      <c r="B92" s="27"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="29"/>
       <c r="C92" s="7" t="s">
         <v>14</v>
       </c>
@@ -2271,8 +2271,8 @@
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="25"/>
-      <c r="B93" s="27"/>
+      <c r="A93" s="18"/>
+      <c r="B93" s="29"/>
       <c r="C93" s="7" t="s">
         <v>22</v>
       </c>
@@ -2282,8 +2282,8 @@
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="25"/>
-      <c r="B94" s="27"/>
+      <c r="A94" s="18"/>
+      <c r="B94" s="29"/>
       <c r="C94" s="7" t="s">
         <v>24</v>
       </c>
@@ -2293,8 +2293,8 @@
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A95" s="25"/>
-      <c r="B95" s="27"/>
+      <c r="A95" s="18"/>
+      <c r="B95" s="29"/>
       <c r="C95" s="7" t="s">
         <v>108</v>
       </c>
@@ -2304,8 +2304,8 @@
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" s="25"/>
-      <c r="B96" s="27"/>
+      <c r="A96" s="18"/>
+      <c r="B96" s="29"/>
       <c r="C96" s="7" t="s">
         <v>28</v>
       </c>
@@ -2315,8 +2315,8 @@
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" s="25"/>
-      <c r="B97" s="27"/>
+      <c r="A97" s="18"/>
+      <c r="B97" s="29"/>
       <c r="C97" s="7" t="s">
         <v>111</v>
       </c>
@@ -2328,8 +2328,8 @@
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" s="25"/>
-      <c r="B98" s="27"/>
+      <c r="A98" s="18"/>
+      <c r="B98" s="29"/>
       <c r="C98" s="7" t="s">
         <v>113</v>
       </c>
@@ -2339,8 +2339,8 @@
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" s="25"/>
-      <c r="B99" s="27"/>
+      <c r="A99" s="18"/>
+      <c r="B99" s="29"/>
       <c r="C99" s="7" t="s">
         <v>115</v>
       </c>
@@ -2350,8 +2350,8 @@
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" s="25"/>
-      <c r="B100" s="27"/>
+      <c r="A100" s="18"/>
+      <c r="B100" s="29"/>
       <c r="C100" s="7" t="s">
         <v>31</v>
       </c>
@@ -2361,8 +2361,8 @@
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" s="25"/>
-      <c r="B101" s="27"/>
+      <c r="A101" s="18"/>
+      <c r="B101" s="29"/>
       <c r="C101" s="7" t="s">
         <v>118</v>
       </c>
@@ -2374,8 +2374,8 @@
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" s="25"/>
-      <c r="B102" s="27"/>
+      <c r="A102" s="18"/>
+      <c r="B102" s="29"/>
       <c r="C102" s="7" t="s">
         <v>93</v>
       </c>
@@ -2385,8 +2385,8 @@
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" s="25"/>
-      <c r="B103" s="27"/>
+      <c r="A103" s="18"/>
+      <c r="B103" s="29"/>
       <c r="C103" s="7" t="s">
         <v>38</v>
       </c>
@@ -2396,8 +2396,8 @@
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" s="25"/>
-      <c r="B104" s="27"/>
+      <c r="A104" s="18"/>
+      <c r="B104" s="29"/>
       <c r="C104" s="7" t="s">
         <v>26</v>
       </c>
@@ -2407,8 +2407,8 @@
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A105" s="25"/>
-      <c r="B105" s="27"/>
+      <c r="A105" s="18"/>
+      <c r="B105" s="29"/>
       <c r="C105" s="7" t="s">
         <v>121</v>
       </c>
@@ -2418,10 +2418,10 @@
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A106" s="25" t="s">
+      <c r="A106" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B106" s="25" t="s">
+      <c r="B106" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C106" s="5" t="s">
@@ -2431,8 +2431,8 @@
       <c r="E106" s="10"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
+      <c r="A107" s="18"/>
+      <c r="B107" s="18"/>
       <c r="C107" s="7" t="s">
         <v>9</v>
       </c>
@@ -2442,8 +2442,8 @@
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" s="25"/>
-      <c r="B108" s="25"/>
+      <c r="A108" s="18"/>
+      <c r="B108" s="18"/>
       <c r="C108" s="7" t="s">
         <v>12</v>
       </c>
@@ -2453,8 +2453,8 @@
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" s="25"/>
-      <c r="B109" s="25"/>
+      <c r="A109" s="18"/>
+      <c r="B109" s="18"/>
       <c r="C109" s="7" t="s">
         <v>14</v>
       </c>
@@ -2464,8 +2464,8 @@
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" s="25"/>
-      <c r="B110" s="25"/>
+      <c r="A110" s="18"/>
+      <c r="B110" s="18"/>
       <c r="C110" s="7" t="s">
         <v>22</v>
       </c>
@@ -2475,8 +2475,8 @@
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A111" s="25"/>
-      <c r="B111" s="25"/>
+      <c r="A111" s="18"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="7" t="s">
         <v>24</v>
       </c>
@@ -2486,8 +2486,8 @@
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A112" s="25"/>
-      <c r="B112" s="25"/>
+      <c r="A112" s="18"/>
+      <c r="B112" s="18"/>
       <c r="C112" s="7" t="s">
         <v>125</v>
       </c>
@@ -2497,8 +2497,8 @@
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" s="25"/>
-      <c r="B113" s="25"/>
+      <c r="A113" s="18"/>
+      <c r="B113" s="18"/>
       <c r="C113" s="7" t="s">
         <v>93</v>
       </c>
@@ -2508,8 +2508,8 @@
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" s="25"/>
-      <c r="B114" s="25"/>
+      <c r="A114" s="18"/>
+      <c r="B114" s="18"/>
       <c r="C114" s="7" t="s">
         <v>127</v>
       </c>
@@ -2519,8 +2519,8 @@
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" s="25"/>
-      <c r="B115" s="25"/>
+      <c r="A115" s="18"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="7" t="s">
         <v>38</v>
       </c>
@@ -2530,10 +2530,10 @@
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" s="25" t="s">
+      <c r="A116" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="B116" s="25" t="s">
+      <c r="B116" s="18" t="s">
         <v>130</v>
       </c>
       <c r="C116" s="5" t="s">
@@ -2543,8 +2543,8 @@
       <c r="E116" s="10"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" s="25"/>
-      <c r="B117" s="25"/>
+      <c r="A117" s="18"/>
+      <c r="B117" s="18"/>
       <c r="C117" s="7" t="s">
         <v>9</v>
       </c>
@@ -2556,8 +2556,8 @@
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" s="25"/>
-      <c r="B118" s="25"/>
+      <c r="A118" s="18"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="7" t="s">
         <v>12</v>
       </c>
@@ -2569,8 +2569,8 @@
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" s="25"/>
-      <c r="B119" s="25"/>
+      <c r="A119" s="18"/>
+      <c r="B119" s="18"/>
       <c r="C119" s="7" t="s">
         <v>14</v>
       </c>
@@ -2582,8 +2582,8 @@
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
+      <c r="A120" s="18"/>
+      <c r="B120" s="18"/>
       <c r="C120" s="7" t="s">
         <v>22</v>
       </c>
@@ -2593,8 +2593,8 @@
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A121" s="25"/>
-      <c r="B121" s="25"/>
+      <c r="A121" s="18"/>
+      <c r="B121" s="18"/>
       <c r="C121" s="7" t="s">
         <v>24</v>
       </c>
@@ -2604,8 +2604,8 @@
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" s="25"/>
-      <c r="B122" s="25"/>
+      <c r="A122" s="18"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="7" t="s">
         <v>113</v>
       </c>
@@ -2615,8 +2615,8 @@
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" s="25"/>
-      <c r="B123" s="25"/>
+      <c r="A123" s="18"/>
+      <c r="B123" s="18"/>
       <c r="C123" s="7" t="s">
         <v>132</v>
       </c>
@@ -2626,8 +2626,8 @@
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" s="25"/>
-      <c r="B124" s="25"/>
+      <c r="A124" s="18"/>
+      <c r="B124" s="18"/>
       <c r="C124" s="7" t="s">
         <v>134</v>
       </c>
@@ -2637,8 +2637,8 @@
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" s="25"/>
-      <c r="B125" s="25"/>
+      <c r="A125" s="18"/>
+      <c r="B125" s="18"/>
       <c r="C125" s="7" t="s">
         <v>136</v>
       </c>
@@ -2648,8 +2648,8 @@
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" s="25"/>
-      <c r="B126" s="25"/>
+      <c r="A126" s="18"/>
+      <c r="B126" s="18"/>
       <c r="C126" s="7" t="s">
         <v>26</v>
       </c>
@@ -2659,8 +2659,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" s="25"/>
-      <c r="B127" s="25"/>
+      <c r="A127" s="18"/>
+      <c r="B127" s="18"/>
       <c r="C127" s="7" t="s">
         <v>93</v>
       </c>
@@ -2670,8 +2670,8 @@
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A128" s="25"/>
-      <c r="B128" s="25"/>
+      <c r="A128" s="18"/>
+      <c r="B128" s="18"/>
       <c r="C128" s="7" t="s">
         <v>108</v>
       </c>
@@ -2681,8 +2681,8 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="25"/>
-      <c r="B129" s="25"/>
+      <c r="A129" s="18"/>
+      <c r="B129" s="18"/>
       <c r="C129" s="7" t="s">
         <v>127</v>
       </c>
@@ -2692,8 +2692,8 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="25"/>
-      <c r="B130" s="25"/>
+      <c r="A130" s="18"/>
+      <c r="B130" s="18"/>
       <c r="C130" s="7" t="s">
         <v>38</v>
       </c>
@@ -2703,10 +2703,10 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="19" t="s">
+      <c r="A131" s="21" t="s">
         <v>138</v>
       </c>
-      <c r="B131" s="19" t="s">
+      <c r="B131" s="21" t="s">
         <v>139</v>
       </c>
       <c r="C131" s="5" t="s">
@@ -2716,8 +2716,8 @@
       <c r="E131" s="10"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="20"/>
-      <c r="B132" s="20"/>
+      <c r="A132" s="22"/>
+      <c r="B132" s="22"/>
       <c r="C132" s="7" t="s">
         <v>9</v>
       </c>
@@ -2729,8 +2729,8 @@
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="20"/>
-      <c r="B133" s="20"/>
+      <c r="A133" s="22"/>
+      <c r="B133" s="22"/>
       <c r="C133" s="7" t="s">
         <v>12</v>
       </c>
@@ -2742,8 +2742,8 @@
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="20"/>
-      <c r="B134" s="20"/>
+      <c r="A134" s="22"/>
+      <c r="B134" s="22"/>
       <c r="C134" s="7" t="s">
         <v>14</v>
       </c>
@@ -2755,8 +2755,8 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="20"/>
-      <c r="B135" s="20"/>
+      <c r="A135" s="22"/>
+      <c r="B135" s="22"/>
       <c r="C135" s="7" t="s">
         <v>22</v>
       </c>
@@ -2766,8 +2766,8 @@
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="20"/>
-      <c r="B136" s="20"/>
+      <c r="A136" s="22"/>
+      <c r="B136" s="22"/>
       <c r="C136" s="7" t="s">
         <v>24</v>
       </c>
@@ -2777,8 +2777,8 @@
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="20"/>
-      <c r="B137" s="20"/>
+      <c r="A137" s="22"/>
+      <c r="B137" s="22"/>
       <c r="C137" s="7" t="s">
         <v>100</v>
       </c>
@@ -2788,8 +2788,8 @@
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="20"/>
-      <c r="B138" s="20"/>
+      <c r="A138" s="22"/>
+      <c r="B138" s="22"/>
       <c r="C138" s="7" t="s">
         <v>26</v>
       </c>
@@ -2801,8 +2801,8 @@
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A139" s="21"/>
-      <c r="B139" s="21"/>
+      <c r="A139" s="23"/>
+      <c r="B139" s="23"/>
       <c r="C139" s="7" t="s">
         <v>38</v>
       </c>
@@ -2812,10 +2812,10 @@
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A140" s="22" t="s">
+      <c r="A140" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B140" s="19" t="s">
+      <c r="B140" s="21" t="s">
         <v>142</v>
       </c>
       <c r="C140" s="5" t="s">
@@ -2825,8 +2825,8 @@
       <c r="E140" s="10"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="23"/>
-      <c r="B141" s="20"/>
+      <c r="A141" s="25"/>
+      <c r="B141" s="22"/>
       <c r="C141" s="7" t="s">
         <v>9</v>
       </c>
@@ -2838,8 +2838,8 @@
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A142" s="23"/>
-      <c r="B142" s="20"/>
+      <c r="A142" s="25"/>
+      <c r="B142" s="22"/>
       <c r="C142" s="7" t="s">
         <v>12</v>
       </c>
@@ -2851,8 +2851,8 @@
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="23"/>
-      <c r="B143" s="20"/>
+      <c r="A143" s="25"/>
+      <c r="B143" s="22"/>
       <c r="C143" s="7" t="s">
         <v>14</v>
       </c>
@@ -2864,8 +2864,8 @@
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="23"/>
-      <c r="B144" s="20"/>
+      <c r="A144" s="25"/>
+      <c r="B144" s="22"/>
       <c r="C144" s="7" t="s">
         <v>22</v>
       </c>
@@ -2875,8 +2875,8 @@
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" s="23"/>
-      <c r="B145" s="20"/>
+      <c r="A145" s="25"/>
+      <c r="B145" s="22"/>
       <c r="C145" s="7" t="s">
         <v>24</v>
       </c>
@@ -2886,8 +2886,8 @@
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" s="23"/>
-      <c r="B146" s="20"/>
+      <c r="A146" s="25"/>
+      <c r="B146" s="22"/>
       <c r="C146" s="7" t="s">
         <v>26</v>
       </c>
@@ -2897,8 +2897,8 @@
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" s="23"/>
-      <c r="B147" s="20"/>
+      <c r="A147" s="25"/>
+      <c r="B147" s="22"/>
       <c r="C147" s="7" t="s">
         <v>84</v>
       </c>
@@ -2908,8 +2908,8 @@
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" s="23"/>
-      <c r="B148" s="20"/>
+      <c r="A148" s="25"/>
+      <c r="B148" s="22"/>
       <c r="C148" s="7" t="s">
         <v>38</v>
       </c>
@@ -2919,21 +2919,21 @@
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" s="24"/>
-      <c r="B149" s="21"/>
-      <c r="C149" s="28" t="s">
+      <c r="A149" s="26"/>
+      <c r="B149" s="23"/>
+      <c r="C149" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D149" s="28"/>
-      <c r="E149" s="29" t="s">
+      <c r="D149" s="16"/>
+      <c r="E149" s="17" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" s="16" t="s">
+      <c r="A150" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B150" s="16" t="s">
+      <c r="B150" s="27" t="s">
         <v>145</v>
       </c>
       <c r="C150" s="14" t="s">
@@ -2943,8 +2943,8 @@
       <c r="E150" s="15"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" s="17"/>
-      <c r="B151" s="17"/>
+      <c r="A151" s="19"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="12" t="s">
         <v>9</v>
       </c>
@@ -2954,8 +2954,8 @@
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" s="17"/>
-      <c r="B152" s="17"/>
+      <c r="A152" s="19"/>
+      <c r="B152" s="19"/>
       <c r="C152" s="12" t="s">
         <v>12</v>
       </c>
@@ -2965,8 +2965,8 @@
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" s="17"/>
-      <c r="B153" s="17"/>
+      <c r="A153" s="19"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="12" t="s">
         <v>14</v>
       </c>
@@ -2976,8 +2976,8 @@
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" s="17"/>
-      <c r="B154" s="17"/>
+      <c r="A154" s="19"/>
+      <c r="B154" s="19"/>
       <c r="C154" s="12" t="s">
         <v>22</v>
       </c>
@@ -2987,8 +2987,8 @@
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" s="18"/>
-      <c r="B155" s="18"/>
+      <c r="A155" s="20"/>
+      <c r="B155" s="20"/>
       <c r="C155" s="12" t="s">
         <v>31</v>
       </c>
@@ -2998,10 +2998,10 @@
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" s="17" t="s">
+      <c r="A156" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B156" s="17" t="s">
+      <c r="B156" s="19" t="s">
         <v>149</v>
       </c>
       <c r="C156" s="14" t="s">
@@ -3011,8 +3011,8 @@
       <c r="E156" s="15"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" s="17"/>
-      <c r="B157" s="17"/>
+      <c r="A157" s="19"/>
+      <c r="B157" s="19"/>
       <c r="C157" s="12" t="s">
         <v>9</v>
       </c>
@@ -3022,8 +3022,8 @@
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" s="17"/>
-      <c r="B158" s="17"/>
+      <c r="A158" s="19"/>
+      <c r="B158" s="19"/>
       <c r="C158" s="12" t="s">
         <v>12</v>
       </c>
@@ -3033,8 +3033,8 @@
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" s="17"/>
-      <c r="B159" s="17"/>
+      <c r="A159" s="19"/>
+      <c r="B159" s="19"/>
       <c r="C159" s="12" t="s">
         <v>14</v>
       </c>
@@ -3044,8 +3044,8 @@
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A160" s="17"/>
-      <c r="B160" s="17"/>
+      <c r="A160" s="19"/>
+      <c r="B160" s="19"/>
       <c r="C160" s="12" t="s">
         <v>22</v>
       </c>
@@ -3055,8 +3055,8 @@
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="17"/>
-      <c r="B161" s="17"/>
+      <c r="A161" s="19"/>
+      <c r="B161" s="19"/>
       <c r="C161" s="12" t="s">
         <v>31</v>
       </c>
@@ -3066,8 +3066,8 @@
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162" s="17"/>
-      <c r="B162" s="17"/>
+      <c r="A162" s="19"/>
+      <c r="B162" s="19"/>
       <c r="C162" s="12" t="s">
         <v>49</v>
       </c>
@@ -3077,8 +3077,8 @@
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A163" s="18"/>
-      <c r="B163" s="18"/>
+      <c r="A163" s="20"/>
+      <c r="B163" s="20"/>
       <c r="C163" s="12" t="s">
         <v>38</v>
       </c>
@@ -3088,10 +3088,10 @@
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A164" s="16" t="s">
+      <c r="A164" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="B164" s="16" t="s">
+      <c r="B164" s="27" t="s">
         <v>152</v>
       </c>
       <c r="C164" s="14" t="s">
@@ -3101,8 +3101,8 @@
       <c r="E164" s="15"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A165" s="17"/>
-      <c r="B165" s="17"/>
+      <c r="A165" s="19"/>
+      <c r="B165" s="19"/>
       <c r="C165" s="12" t="s">
         <v>9</v>
       </c>
@@ -3112,8 +3112,8 @@
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A166" s="17"/>
-      <c r="B166" s="17"/>
+      <c r="A166" s="19"/>
+      <c r="B166" s="19"/>
       <c r="C166" s="12" t="s">
         <v>12</v>
       </c>
@@ -3123,8 +3123,8 @@
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A167" s="17"/>
-      <c r="B167" s="17"/>
+      <c r="A167" s="19"/>
+      <c r="B167" s="19"/>
       <c r="C167" s="12" t="s">
         <v>14</v>
       </c>
@@ -3134,8 +3134,8 @@
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A168" s="17"/>
-      <c r="B168" s="17"/>
+      <c r="A168" s="19"/>
+      <c r="B168" s="19"/>
       <c r="C168" s="12" t="s">
         <v>22</v>
       </c>
@@ -3145,8 +3145,8 @@
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A169" s="17"/>
-      <c r="B169" s="17"/>
+      <c r="A169" s="19"/>
+      <c r="B169" s="19"/>
       <c r="C169" s="12" t="s">
         <v>153</v>
       </c>
@@ -3156,8 +3156,8 @@
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A170" s="18"/>
-      <c r="B170" s="18"/>
+      <c r="A170" s="20"/>
+      <c r="B170" s="20"/>
       <c r="C170" s="12" t="s">
         <v>38</v>
       </c>
@@ -3167,10 +3167,10 @@
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A171" s="19" t="s">
+      <c r="A171" s="21" t="s">
         <v>155</v>
       </c>
-      <c r="B171" s="19" t="s">
+      <c r="B171" s="21" t="s">
         <v>156</v>
       </c>
       <c r="C171" s="5" t="s">
@@ -3180,8 +3180,8 @@
       <c r="E171" s="10"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A172" s="20"/>
-      <c r="B172" s="20"/>
+      <c r="A172" s="22"/>
+      <c r="B172" s="22"/>
       <c r="C172" s="7" t="s">
         <v>9</v>
       </c>
@@ -3191,8 +3191,8 @@
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A173" s="20"/>
-      <c r="B173" s="20"/>
+      <c r="A173" s="22"/>
+      <c r="B173" s="22"/>
       <c r="C173" s="7" t="s">
         <v>12</v>
       </c>
@@ -3202,8 +3202,8 @@
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A174" s="20"/>
-      <c r="B174" s="20"/>
+      <c r="A174" s="22"/>
+      <c r="B174" s="22"/>
       <c r="C174" s="7" t="s">
         <v>14</v>
       </c>
@@ -3213,8 +3213,8 @@
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A175" s="20"/>
-      <c r="B175" s="20"/>
+      <c r="A175" s="22"/>
+      <c r="B175" s="22"/>
       <c r="C175" s="7" t="s">
         <v>22</v>
       </c>
@@ -3224,8 +3224,8 @@
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A176" s="20"/>
-      <c r="B176" s="20"/>
+      <c r="A176" s="22"/>
+      <c r="B176" s="22"/>
       <c r="C176" s="7" t="s">
         <v>157</v>
       </c>
@@ -3235,8 +3235,8 @@
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A177" s="20"/>
-      <c r="B177" s="20"/>
+      <c r="A177" s="22"/>
+      <c r="B177" s="22"/>
       <c r="C177" s="7" t="s">
         <v>159</v>
       </c>
@@ -3246,8 +3246,8 @@
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A178" s="20"/>
-      <c r="B178" s="20"/>
+      <c r="A178" s="22"/>
+      <c r="B178" s="22"/>
       <c r="C178" s="7" t="s">
         <v>49</v>
       </c>
@@ -3257,8 +3257,8 @@
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A179" s="20"/>
-      <c r="B179" s="20"/>
+      <c r="A179" s="23"/>
+      <c r="B179" s="23"/>
       <c r="C179" s="7" t="s">
         <v>38</v>
       </c>
@@ -3268,894 +3268,892 @@
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A180" s="21"/>
-      <c r="B180" s="21"/>
-      <c r="C180" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D180" s="7"/>
-      <c r="E180" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A180" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B180" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="5"/>
+      <c r="E180" s="10"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A181" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B181" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D181" s="5"/>
-      <c r="E181" s="10"/>
+      <c r="A181" s="18"/>
+      <c r="B181" s="18"/>
+      <c r="C181" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E181" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A182" s="25"/>
-      <c r="B182" s="25"/>
+      <c r="A182" s="18"/>
+      <c r="B182" s="18"/>
       <c r="C182" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D182" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E182" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A183" s="25"/>
-      <c r="B183" s="25"/>
+      <c r="A183" s="18"/>
+      <c r="B183" s="18"/>
       <c r="C183" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E183" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A184" s="25"/>
-      <c r="B184" s="25"/>
+      <c r="A184" s="18"/>
+      <c r="B184" s="18"/>
       <c r="C184" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D184" s="7"/>
       <c r="E184" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A185" s="25"/>
-      <c r="B185" s="25"/>
+      <c r="A185" s="18"/>
+      <c r="B185" s="18"/>
       <c r="C185" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A186" s="25"/>
-      <c r="B186" s="25"/>
+      <c r="A186" s="18"/>
+      <c r="B186" s="18"/>
       <c r="C186" s="7" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="D186" s="7"/>
       <c r="E186" s="8" t="s">
-        <v>25</v>
+        <v>163</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A187" s="25"/>
-      <c r="B187" s="25"/>
+      <c r="A187" s="18"/>
+      <c r="B187" s="18"/>
       <c r="C187" s="7" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="D187" s="7"/>
       <c r="E187" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A188" s="25"/>
-      <c r="B188" s="25"/>
+      <c r="A188" s="18"/>
+      <c r="B188" s="18"/>
       <c r="C188" s="7" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="D188" s="7"/>
       <c r="E188" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A189" s="25"/>
-      <c r="B189" s="25"/>
+      <c r="A189" s="18"/>
+      <c r="B189" s="18"/>
       <c r="C189" s="7" t="s">
-        <v>165</v>
+        <v>84</v>
       </c>
       <c r="D189" s="7"/>
       <c r="E189" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A190" s="25"/>
-      <c r="B190" s="25"/>
+      <c r="A190" s="18"/>
+      <c r="B190" s="18"/>
       <c r="C190" s="7" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D190" s="7"/>
       <c r="E190" s="8" t="s">
-        <v>167</v>
+        <v>39</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A191" s="25"/>
-      <c r="B191" s="25"/>
-      <c r="C191" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D191" s="7"/>
-      <c r="E191" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A191" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B191" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" s="5"/>
+      <c r="E191" s="10"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A192" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="B192" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="C192" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D192" s="5"/>
-      <c r="E192" s="10"/>
+      <c r="A192" s="18"/>
+      <c r="B192" s="18"/>
+      <c r="C192" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A193" s="25"/>
-      <c r="B193" s="25"/>
+      <c r="A193" s="18"/>
+      <c r="B193" s="18"/>
       <c r="C193" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D193" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E193" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A194" s="25"/>
-      <c r="B194" s="25"/>
+      <c r="A194" s="18"/>
+      <c r="B194" s="18"/>
       <c r="C194" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D194" s="7" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E194" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A195" s="25"/>
-      <c r="B195" s="25"/>
+      <c r="A195" s="18"/>
+      <c r="B195" s="18"/>
       <c r="C195" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D195" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D195" s="7"/>
       <c r="E195" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A196" s="25"/>
-      <c r="B196" s="25"/>
+      <c r="A196" s="18"/>
+      <c r="B196" s="18"/>
       <c r="C196" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D196" s="7"/>
       <c r="E196" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A197" s="25"/>
-      <c r="B197" s="25"/>
+      <c r="A197" s="18"/>
+      <c r="B197" s="18"/>
       <c r="C197" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D197" s="7"/>
       <c r="E197" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A198" s="25"/>
-      <c r="B198" s="25"/>
+      <c r="A198" s="18"/>
+      <c r="B198" s="18"/>
       <c r="C198" s="7" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="D198" s="7"/>
       <c r="E198" s="8" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A199" s="25"/>
-      <c r="B199" s="25"/>
+      <c r="A199" s="18"/>
+      <c r="B199" s="18"/>
       <c r="C199" s="7" t="s">
-        <v>113</v>
+        <v>38</v>
       </c>
       <c r="D199" s="7"/>
       <c r="E199" s="8" t="s">
-        <v>170</v>
+        <v>39</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A200" s="25"/>
-      <c r="B200" s="25"/>
-      <c r="C200" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D200" s="7"/>
-      <c r="E200" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A200" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="B200" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="C200" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" s="6"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A201" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B201" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="C201" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D201" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E201" s="6"/>
+      <c r="A201" s="18"/>
+      <c r="B201" s="18"/>
+      <c r="C201" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A202" s="25"/>
-      <c r="B202" s="25"/>
+      <c r="A202" s="18"/>
+      <c r="B202" s="18"/>
       <c r="C202" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D202" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A203" s="25"/>
-      <c r="B203" s="25"/>
+      <c r="A203" s="18"/>
+      <c r="B203" s="18"/>
       <c r="C203" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D203" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A204" s="25"/>
-      <c r="B204" s="25"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="85.5" x14ac:dyDescent="0.2">
+      <c r="A204" s="18"/>
+      <c r="B204" s="18"/>
       <c r="C204" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D204" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E204" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" ht="171" x14ac:dyDescent="0.2">
-      <c r="A205" s="25"/>
-      <c r="B205" s="25"/>
+        <v>17</v>
+      </c>
+      <c r="E204" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="18"/>
+      <c r="B205" s="18"/>
       <c r="C205" s="7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E205" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A206" s="25"/>
-      <c r="B206" s="25"/>
+      <c r="A206" s="18"/>
+      <c r="B206" s="18"/>
       <c r="C206" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D206" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A207" s="25"/>
-      <c r="B207" s="25"/>
+      <c r="A207" s="18"/>
+      <c r="B207" s="18"/>
       <c r="C207" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D207" s="7" t="s">
         <v>20</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A208" s="25"/>
-      <c r="B208" s="25"/>
+      <c r="A208" s="18"/>
+      <c r="B208" s="18"/>
       <c r="C208" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="D208" s="7"/>
       <c r="E208" s="8" t="s">
-        <v>27</v>
+        <v>173</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A209" s="25"/>
-      <c r="B209" s="25"/>
+      <c r="A209" s="18"/>
+      <c r="B209" s="18"/>
       <c r="C209" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D209" s="7"/>
       <c r="E209" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A210" s="25"/>
-      <c r="B210" s="25"/>
+      <c r="A210" s="18"/>
+      <c r="B210" s="18"/>
       <c r="C210" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D210" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="E210" s="8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A211" s="25"/>
-      <c r="B211" s="25"/>
+      <c r="A211" s="18"/>
+      <c r="B211" s="18"/>
       <c r="C211" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D211" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A212" s="25"/>
-      <c r="B212" s="25"/>
+      <c r="A212" s="18"/>
+      <c r="B212" s="18"/>
       <c r="C212" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>20</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D212" s="7"/>
       <c r="E212" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A213" s="25"/>
-      <c r="B213" s="25"/>
+      <c r="A213" s="18"/>
+      <c r="B213" s="18"/>
       <c r="C213" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D213" s="7"/>
       <c r="E213" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A214" s="25"/>
-      <c r="B214" s="25"/>
+      <c r="A214" s="18"/>
+      <c r="B214" s="18"/>
       <c r="C214" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D214" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="E214" s="8" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A215" s="25"/>
-      <c r="B215" s="25"/>
-      <c r="C215" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D215" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E215" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A215" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="B215" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="C215" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="5"/>
+      <c r="E215" s="10"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A216" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="B216" s="26" t="s">
-        <v>182</v>
-      </c>
-      <c r="C216" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D216" s="5"/>
-      <c r="E216" s="10"/>
+      <c r="A216" s="18"/>
+      <c r="B216" s="28"/>
+      <c r="C216" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E216" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A217" s="25"/>
-      <c r="B217" s="26"/>
+      <c r="A217" s="18"/>
+      <c r="B217" s="28"/>
       <c r="C217" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D217" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A218" s="25"/>
-      <c r="B218" s="26"/>
+      <c r="A218" s="18"/>
+      <c r="B218" s="28"/>
       <c r="C218" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D218" s="7" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="25"/>
-      <c r="B219" s="26"/>
+      <c r="A219" s="18"/>
+      <c r="B219" s="28"/>
       <c r="C219" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D219" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D219" s="7"/>
       <c r="E219" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A220" s="25"/>
-      <c r="B220" s="26"/>
+      <c r="A220" s="18"/>
+      <c r="B220" s="28"/>
       <c r="C220" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D220" s="7"/>
       <c r="E220" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A221" s="25"/>
-      <c r="B221" s="26"/>
+      <c r="A221" s="18"/>
+      <c r="B221" s="28"/>
       <c r="C221" s="7" t="s">
-        <v>24</v>
+        <v>183</v>
       </c>
       <c r="D221" s="7"/>
       <c r="E221" s="8" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A222" s="25"/>
-      <c r="B222" s="26"/>
+      <c r="A222" s="18"/>
+      <c r="B222" s="28"/>
       <c r="C222" s="7" t="s">
-        <v>183</v>
+        <v>28</v>
       </c>
       <c r="D222" s="7"/>
       <c r="E222" s="8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A223" s="25"/>
-      <c r="B223" s="26"/>
+      <c r="A223" s="18"/>
+      <c r="B223" s="28"/>
       <c r="C223" s="7" t="s">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="D223" s="7"/>
       <c r="E223" s="8" t="s">
-        <v>185</v>
+        <v>112</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A224" s="25"/>
-      <c r="B224" s="26"/>
+      <c r="A224" s="18"/>
+      <c r="B224" s="28"/>
       <c r="C224" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D224" s="7"/>
       <c r="E224" s="8" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A225" s="25"/>
-      <c r="B225" s="26"/>
+      <c r="A225" s="18"/>
+      <c r="B225" s="28"/>
       <c r="C225" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D225" s="7"/>
       <c r="E225" s="8" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A226" s="25"/>
-      <c r="B226" s="26"/>
+      <c r="A226" s="18"/>
+      <c r="B226" s="28"/>
       <c r="C226" s="7" t="s">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="D226" s="7"/>
       <c r="E226" s="8" t="s">
-        <v>116</v>
+        <v>187</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A227" s="25"/>
-      <c r="B227" s="26"/>
+      <c r="A227" s="18"/>
+      <c r="B227" s="28"/>
       <c r="C227" s="7" t="s">
-        <v>31</v>
+        <v>118</v>
       </c>
       <c r="D227" s="7"/>
       <c r="E227" s="8" t="s">
-        <v>187</v>
+        <v>119</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A228" s="25"/>
-      <c r="B228" s="26"/>
+      <c r="A228" s="18"/>
+      <c r="B228" s="28"/>
       <c r="C228" s="7" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D228" s="7"/>
       <c r="E228" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A229" s="25"/>
-      <c r="B229" s="26"/>
+      <c r="A229" s="18"/>
+      <c r="B229" s="28"/>
       <c r="C229" s="7" t="s">
-        <v>93</v>
+        <v>38</v>
       </c>
       <c r="D229" s="7"/>
       <c r="E229" s="8" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A230" s="25"/>
-      <c r="B230" s="26"/>
+      <c r="A230" s="18"/>
+      <c r="B230" s="28"/>
       <c r="C230" s="7" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D230" s="7"/>
       <c r="E230" s="8" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A231" s="25"/>
-      <c r="B231" s="26"/>
-      <c r="C231" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D231" s="7"/>
-      <c r="E231" s="8" t="s">
-        <v>27</v>
-      </c>
+      <c r="A231" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="B231" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="C231" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D231" s="5"/>
+      <c r="E231" s="10"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A232" s="25" t="s">
-        <v>188</v>
-      </c>
-      <c r="B232" s="25" t="s">
-        <v>189</v>
-      </c>
-      <c r="C232" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D232" s="5"/>
-      <c r="E232" s="10"/>
+      <c r="A232" s="18"/>
+      <c r="B232" s="18"/>
+      <c r="C232" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D232" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E232" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A233" s="25"/>
-      <c r="B233" s="25"/>
+      <c r="A233" s="18"/>
+      <c r="B233" s="18"/>
       <c r="C233" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D233" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E233" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A234" s="25"/>
-      <c r="B234" s="25"/>
+      <c r="A234" s="18"/>
+      <c r="B234" s="18"/>
       <c r="C234" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D234" s="7" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E234" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A235" s="25"/>
-      <c r="B235" s="25"/>
+      <c r="A235" s="18"/>
+      <c r="B235" s="18"/>
       <c r="C235" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D235" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D235" s="7"/>
       <c r="E235" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A236" s="25"/>
-      <c r="B236" s="25"/>
+      <c r="A236" s="18"/>
+      <c r="B236" s="18"/>
       <c r="C236" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D236" s="7"/>
       <c r="E236" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A237" s="25"/>
-      <c r="B237" s="25"/>
+      <c r="A237" s="18"/>
+      <c r="B237" s="18"/>
       <c r="C237" s="7" t="s">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="D237" s="7"/>
       <c r="E237" s="8" t="s">
-        <v>25</v>
+        <v>190</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A238" s="25"/>
-      <c r="B238" s="25"/>
+      <c r="A238" s="18"/>
+      <c r="B238" s="18"/>
       <c r="C238" s="7" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="D238" s="7"/>
       <c r="E238" s="8" t="s">
-        <v>190</v>
+        <v>72</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A239" s="25"/>
-      <c r="B239" s="25"/>
+      <c r="A239" s="18"/>
+      <c r="B239" s="18"/>
       <c r="C239" s="7" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="D239" s="7"/>
       <c r="E239" s="8" t="s">
-        <v>72</v>
+        <v>192</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A240" s="25"/>
-      <c r="B240" s="25"/>
+      <c r="A240" s="18"/>
+      <c r="B240" s="18"/>
       <c r="C240" s="7" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="D240" s="7"/>
       <c r="E240" s="8" t="s">
-        <v>192</v>
+        <v>39</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A241" s="25"/>
-      <c r="B241" s="25"/>
-      <c r="C241" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D241" s="7"/>
-      <c r="E241" s="8" t="s">
-        <v>39</v>
-      </c>
+      <c r="A241" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B241" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D241" s="5"/>
+      <c r="E241" s="10"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A242" s="25" t="s">
-        <v>193</v>
-      </c>
-      <c r="B242" s="25" t="s">
-        <v>194</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D242" s="5"/>
-      <c r="E242" s="10"/>
+      <c r="A242" s="18"/>
+      <c r="B242" s="18"/>
+      <c r="C242" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D242" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E242" s="8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A243" s="25"/>
-      <c r="B243" s="25"/>
+      <c r="A243" s="18"/>
+      <c r="B243" s="18"/>
       <c r="C243" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D243" s="7" t="s">
         <v>107</v>
       </c>
       <c r="E243" s="8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A244" s="25"/>
-      <c r="B244" s="25"/>
+      <c r="A244" s="18"/>
+      <c r="B244" s="18"/>
       <c r="C244" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D244" s="7" t="s">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="E244" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A245" s="25"/>
-      <c r="B245" s="25"/>
+      <c r="A245" s="18"/>
+      <c r="B245" s="18"/>
       <c r="C245" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D245" s="7" t="s">
-        <v>10</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="D245" s="7"/>
       <c r="E245" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A246" s="25"/>
-      <c r="B246" s="25"/>
+      <c r="A246" s="18"/>
+      <c r="B246" s="18"/>
       <c r="C246" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D246" s="7"/>
       <c r="E246" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A247" s="25"/>
-      <c r="B247" s="25"/>
+      <c r="A247" s="18"/>
+      <c r="B247" s="18"/>
       <c r="C247" s="7" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="D247" s="7"/>
       <c r="E247" s="8" t="s">
-        <v>25</v>
+        <v>195</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A248" s="25"/>
-      <c r="B248" s="25"/>
+      <c r="A248" s="18"/>
+      <c r="B248" s="18"/>
       <c r="C248" s="7" t="s">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="D248" s="7"/>
       <c r="E248" s="8" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A249" s="25"/>
-      <c r="B249" s="25"/>
+      <c r="A249" s="18"/>
+      <c r="B249" s="18"/>
       <c r="C249" s="7" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="D249" s="7"/>
       <c r="E249" s="8" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A250" s="25"/>
-      <c r="B250" s="25"/>
+      <c r="A250" s="18"/>
+      <c r="B250" s="18"/>
       <c r="C250" s="7" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="D250" s="7"/>
       <c r="E250" s="8" t="s">
-        <v>120</v>
+        <v>192</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A251" s="25"/>
-      <c r="B251" s="25"/>
+      <c r="A251" s="18"/>
+      <c r="B251" s="18"/>
       <c r="C251" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="D251" s="7"/>
       <c r="E251" s="8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A252" s="25"/>
-      <c r="B252" s="25"/>
+      <c r="A252" s="18"/>
+      <c r="B252" s="18"/>
       <c r="C252" s="7" t="s">
-        <v>191</v>
+        <v>38</v>
       </c>
       <c r="D252" s="7"/>
       <c r="E252" s="8" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A253" s="25"/>
-      <c r="B253" s="25"/>
-      <c r="C253" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D253" s="7"/>
-      <c r="E253" s="8" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B192:B200"/>
-    <mergeCell ref="B201:B215"/>
-    <mergeCell ref="B156:B163"/>
-    <mergeCell ref="A156:A163"/>
-    <mergeCell ref="B140:B149"/>
-    <mergeCell ref="A140:A149"/>
-    <mergeCell ref="B150:B155"/>
-    <mergeCell ref="A150:A155"/>
-    <mergeCell ref="A242:A253"/>
+    <mergeCell ref="B131:B139"/>
+    <mergeCell ref="A131:A139"/>
+    <mergeCell ref="A171:A179"/>
+    <mergeCell ref="B171:B179"/>
+    <mergeCell ref="A2:A15"/>
+    <mergeCell ref="A16:A29"/>
+    <mergeCell ref="A30:A42"/>
+    <mergeCell ref="A43:A54"/>
+    <mergeCell ref="A55:A68"/>
+    <mergeCell ref="A215:A230"/>
+    <mergeCell ref="A231:A240"/>
+    <mergeCell ref="A69:A78"/>
+    <mergeCell ref="A79:A88"/>
+    <mergeCell ref="A89:A105"/>
+    <mergeCell ref="A106:A115"/>
+    <mergeCell ref="A116:A130"/>
+    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="A241:A252"/>
     <mergeCell ref="B2:B15"/>
     <mergeCell ref="B16:B29"/>
     <mergeCell ref="B30:B42"/>
@@ -4166,31 +4164,22 @@
     <mergeCell ref="B89:B105"/>
     <mergeCell ref="B106:B115"/>
     <mergeCell ref="B116:B130"/>
-    <mergeCell ref="B216:B231"/>
-    <mergeCell ref="B232:B241"/>
-    <mergeCell ref="B242:B253"/>
-    <mergeCell ref="B181:B191"/>
-    <mergeCell ref="A181:A191"/>
-    <mergeCell ref="A192:A200"/>
-    <mergeCell ref="A201:A215"/>
-    <mergeCell ref="A216:A231"/>
-    <mergeCell ref="A232:A241"/>
-    <mergeCell ref="A69:A78"/>
-    <mergeCell ref="A79:A88"/>
-    <mergeCell ref="A89:A105"/>
-    <mergeCell ref="A106:A115"/>
-    <mergeCell ref="A116:A130"/>
-    <mergeCell ref="A2:A15"/>
-    <mergeCell ref="A16:A29"/>
-    <mergeCell ref="A30:A42"/>
-    <mergeCell ref="A43:A54"/>
-    <mergeCell ref="A55:A68"/>
-    <mergeCell ref="A164:A170"/>
+    <mergeCell ref="B215:B230"/>
+    <mergeCell ref="B231:B240"/>
+    <mergeCell ref="B241:B252"/>
+    <mergeCell ref="B180:B190"/>
+    <mergeCell ref="A180:A190"/>
+    <mergeCell ref="B191:B199"/>
+    <mergeCell ref="B200:B214"/>
+    <mergeCell ref="B156:B163"/>
+    <mergeCell ref="A156:A163"/>
+    <mergeCell ref="B140:B149"/>
+    <mergeCell ref="A140:A149"/>
+    <mergeCell ref="B150:B155"/>
+    <mergeCell ref="A150:A155"/>
+    <mergeCell ref="A191:A199"/>
+    <mergeCell ref="A200:A214"/>
     <mergeCell ref="B164:B170"/>
-    <mergeCell ref="A171:A180"/>
-    <mergeCell ref="B171:B180"/>
-    <mergeCell ref="B131:B139"/>
-    <mergeCell ref="A131:A139"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
